--- a/requirements/Anonymized eicrdataneedsv14_working.xlsx
+++ b/requirements/Anonymized eicrdataneedsv14_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minigrrl\Dropbox\12_SourceControl\GitHub\Lantana\FHIR-us-eicr-anonymized\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0136AB89-428B-457A-828E-25EC2DBD11A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F84C38-B7D3-410C-AC97-B1C6A562262E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{285485E5-942A-4B88-BF4B-14F3EF0BB33E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="599">
   <si>
     <t>eICR Data Element</t>
   </si>
@@ -1893,6 +1893,15 @@
   </si>
   <si>
     <t>Disallow slice, template</t>
+  </si>
+  <si>
+    <t>All relevent data elements</t>
+  </si>
+  <si>
+    <t>*.display</t>
+  </si>
+  <si>
+    <t>Disallow display on all relevant data elements</t>
   </si>
 </sst>
 </file>
@@ -2428,9 +2437,9 @@
   <dimension ref="A1:M228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D201" sqref="D201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -8599,8 +8608,30 @@
         <v>484</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B201" s="13"/>
+    <row r="201" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A201" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="B201" s="20"/>
+      <c r="C201" s="19"/>
+      <c r="D201" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="E201" s="11"/>
+      <c r="F201" s="7"/>
+      <c r="G201" s="7"/>
+      <c r="H201" s="7"/>
+      <c r="I201" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="J201" s="11"/>
+      <c r="K201" s="11"/>
+      <c r="L201" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="M201" s="11" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B202" s="13"/>
@@ -9453,32 +9484,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LCG_x0020_Document_x0020_Workflow xmlns="82D0F40D-97DD-4AB3-B4BB-3ECBE327B628">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </LCG_x0020_Document_x0020_Workflow>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="82d0f40d-97dd-4ab3-b4bb-3ecbe327b628">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9ed5a28f-e285-4793-933e-f86572ea3e88" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AAEF04E9A1B48544A813770D804417BF" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a681fcb199cf8f7d334bb0be32bb6121">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="9ed5a28f-e285-4793-933e-f86572ea3e88" xmlns:ns3="82D0F40D-97DD-4AB3-B4BB-3ECBE327B628" xmlns:ns4="a130c0bc-081d-4a7d-8c4b-0d956631a56e" xmlns:ns5="82d0f40d-97dd-4ab3-b4bb-3ecbe327b628" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="910aa554c65bba8b8ae3e351c6d836ba" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9761,10 +9766,50 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LCG_x0020_Document_x0020_Workflow xmlns="82D0F40D-97DD-4AB3-B4BB-3ECBE327B628">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </LCG_x0020_Document_x0020_Workflow>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="82d0f40d-97dd-4ab3-b4bb-3ecbe327b628">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9ed5a28f-e285-4793-933e-f86572ea3e88" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{444632C0-B354-4144-8906-CF8857243D1F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0EC9102-CC0B-48A4-9231-EA87BE55FEC3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="9ed5a28f-e285-4793-933e-f86572ea3e88"/>
+    <ds:schemaRef ds:uri="82D0F40D-97DD-4AB3-B4BB-3ECBE327B628"/>
+    <ds:schemaRef ds:uri="a130c0bc-081d-4a7d-8c4b-0d956631a56e"/>
+    <ds:schemaRef ds:uri="82d0f40d-97dd-4ab3-b4bb-3ecbe327b628"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9790,23 +9835,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0EC9102-CC0B-48A4-9231-EA87BE55FEC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{444632C0-B354-4144-8906-CF8857243D1F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="9ed5a28f-e285-4793-933e-f86572ea3e88"/>
-    <ds:schemaRef ds:uri="82D0F40D-97DD-4AB3-B4BB-3ECBE327B628"/>
-    <ds:schemaRef ds:uri="a130c0bc-081d-4a7d-8c4b-0d956631a56e"/>
-    <ds:schemaRef ds:uri="82d0f40d-97dd-4ab3-b4bb-3ecbe327b628"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/requirements/Anonymized eicrdataneedsv14_working.xlsx
+++ b/requirements/Anonymized eicrdataneedsv14_working.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minigrrl\Dropbox\12_SourceControl\GitHub\Lantana\FHIR-us-eicr-anonymized\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F84C38-B7D3-410C-AC97-B1C6A562262E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CAD8D7-0DDB-49FA-82E8-5D2B76B8FA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{285485E5-942A-4B88-BF4B-14F3EF0BB33E}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{285485E5-942A-4B88-BF4B-14F3EF0BB33E}"/>
   </bookViews>
   <sheets>
     <sheet name="eICR Data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'data elements'!$A$1:$K$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'eICR Data'!$A$1:$I$200</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'eICR Data'!$A$1:$I$201</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1889,9 +1889,6 @@
     <t>eICR Composition.socialHistorySection.ExposureContactInformation</t>
   </si>
   <si>
-    <t>disallow text in section</t>
-  </si>
-  <si>
     <t>Disallow slice, template</t>
   </si>
   <si>
@@ -1902,6 +1899,9 @@
   </si>
   <si>
     <t>Disallow display on all relevant data elements</t>
+  </si>
+  <si>
+    <t>prescribe MASKED text in section.text.div (had to use a constraint for this because the xHtml data type doesn't allow fixing a value)</t>
   </si>
 </sst>
 </file>
@@ -2434,12 +2434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F0C505-63DE-4322-BEE9-180C5089B356}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M228"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="D201" sqref="D201"/>
+      <selection pane="bottomLeft" activeCell="L198" sqref="L198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2499,7 +2500,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>448</v>
       </c>
@@ -2532,7 +2533,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>448</v>
       </c>
@@ -2561,7 +2562,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>448</v>
       </c>
@@ -2590,7 +2591,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>448</v>
       </c>
@@ -2917,7 +2918,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>462</v>
       </c>
@@ -2954,7 +2955,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>463</v>
       </c>
@@ -2993,7 +2994,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>448</v>
       </c>
@@ -3024,7 +3025,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>448</v>
       </c>
@@ -3055,7 +3056,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>448</v>
       </c>
@@ -3084,7 +3085,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>448</v>
       </c>
@@ -3117,7 +3118,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>448</v>
       </c>
@@ -3150,7 +3151,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>448</v>
       </c>
@@ -3183,7 +3184,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>448</v>
       </c>
@@ -3216,7 +3217,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>448</v>
       </c>
@@ -3247,7 +3248,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>448</v>
       </c>
@@ -3276,7 +3277,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>448</v>
       </c>
@@ -3307,7 +3308,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>448</v>
       </c>
@@ -3336,7 +3337,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>448</v>
       </c>
@@ -3365,7 +3366,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>448</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>448</v>
       </c>
@@ -3573,7 +3574,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" s="1" customFormat="1" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>448</v>
       </c>
@@ -3643,7 +3644,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>448</v>
       </c>
@@ -3674,7 +3675,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" s="1" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>448</v>
       </c>
@@ -3711,7 +3712,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>448</v>
       </c>
@@ -3816,7 +3817,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>448</v>
       </c>
@@ -3851,7 +3852,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>448</v>
       </c>
@@ -3882,7 +3883,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>448</v>
       </c>
@@ -3913,7 +3914,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>448</v>
       </c>
@@ -3944,7 +3945,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>448</v>
       </c>
@@ -3977,7 +3978,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>448</v>
       </c>
@@ -4010,7 +4011,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>448</v>
       </c>
@@ -4043,7 +4044,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>448</v>
       </c>
@@ -4111,7 +4112,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>448</v>
       </c>
@@ -4140,7 +4141,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>448</v>
       </c>
@@ -4169,7 +4170,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>448</v>
       </c>
@@ -4198,7 +4199,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>448</v>
       </c>
@@ -4227,7 +4228,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>448</v>
       </c>
@@ -4258,7 +4259,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>448</v>
       </c>
@@ -4289,7 +4290,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>448</v>
       </c>
@@ -4320,7 +4321,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>448</v>
       </c>
@@ -4349,7 +4350,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>448</v>
       </c>
@@ -4380,7 +4381,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>448</v>
       </c>
@@ -4409,7 +4410,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>448</v>
       </c>
@@ -4440,7 +4441,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>448</v>
       </c>
@@ -4469,7 +4470,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>448</v>
       </c>
@@ -4500,7 +4501,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>448</v>
       </c>
@@ -4529,7 +4530,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>448</v>
       </c>
@@ -4560,7 +4561,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>448</v>
       </c>
@@ -4591,7 +4592,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>448</v>
       </c>
@@ -4624,7 +4625,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>448</v>
       </c>
@@ -4657,7 +4658,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>445</v>
       </c>
@@ -4686,13 +4687,13 @@
       </c>
       <c r="K68" s="4"/>
       <c r="L68" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>448</v>
       </c>
@@ -4723,7 +4724,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>448</v>
       </c>
@@ -4754,7 +4755,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>448</v>
       </c>
@@ -4785,7 +4786,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>448</v>
       </c>
@@ -4816,7 +4817,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>448</v>
       </c>
@@ -4849,7 +4850,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>448</v>
       </c>
@@ -4880,7 +4881,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>448</v>
       </c>
@@ -4911,7 +4912,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>448</v>
       </c>
@@ -4944,7 +4945,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>448</v>
       </c>
@@ -4977,7 +4978,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="78" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>448</v>
       </c>
@@ -5008,7 +5009,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>448</v>
       </c>
@@ -5039,7 +5040,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="80" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>448</v>
       </c>
@@ -5070,7 +5071,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>448</v>
       </c>
@@ -5099,7 +5100,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="82" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>448</v>
       </c>
@@ -5130,7 +5131,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="83" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>448</v>
       </c>
@@ -5161,7 +5162,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="84" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>448</v>
       </c>
@@ -5190,7 +5191,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="85" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>448</v>
       </c>
@@ -5219,7 +5220,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="86" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>448</v>
       </c>
@@ -5248,7 +5249,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="87" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>448</v>
       </c>
@@ -5277,7 +5278,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="88" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>448</v>
       </c>
@@ -5308,7 +5309,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="89" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>448</v>
       </c>
@@ -5337,7 +5338,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="90" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>448</v>
       </c>
@@ -5368,7 +5369,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="91" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>448</v>
       </c>
@@ -5399,7 +5400,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="92" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>448</v>
       </c>
@@ -5430,7 +5431,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="93" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>448</v>
       </c>
@@ -5461,7 +5462,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="94" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>448</v>
       </c>
@@ -5492,7 +5493,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="95" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>448</v>
       </c>
@@ -5525,7 +5526,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="96" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>448</v>
       </c>
@@ -5556,7 +5557,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="97" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>448</v>
       </c>
@@ -5587,7 +5588,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="98" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>448</v>
       </c>
@@ -5618,7 +5619,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="99" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>448</v>
       </c>
@@ -5649,7 +5650,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="100" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>448</v>
       </c>
@@ -5680,7 +5681,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="101" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>448</v>
       </c>
@@ -5711,7 +5712,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="102" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>448</v>
       </c>
@@ -5742,7 +5743,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="23" t="s">
         <v>448</v>
       </c>
@@ -5773,7 +5774,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="104" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" s="1" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="23" t="s">
         <v>448</v>
       </c>
@@ -5804,7 +5805,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="105" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>448</v>
       </c>
@@ -5835,7 +5836,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="106" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>448</v>
       </c>
@@ -5866,7 +5867,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="107" spans="1:13" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" s="1" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>448</v>
       </c>
@@ -5899,7 +5900,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="108" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>448</v>
       </c>
@@ -5932,7 +5933,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="109" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>448</v>
       </c>
@@ -5963,7 +5964,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>448</v>
       </c>
@@ -5992,7 +5993,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>448</v>
       </c>
@@ -6021,7 +6022,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>448</v>
       </c>
@@ -6050,7 +6051,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>448</v>
       </c>
@@ -6079,7 +6080,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>448</v>
       </c>
@@ -6108,7 +6109,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>448</v>
       </c>
@@ -6137,7 +6138,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>448</v>
       </c>
@@ -6166,7 +6167,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>448</v>
       </c>
@@ -6195,7 +6196,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>448</v>
       </c>
@@ -6224,7 +6225,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>448</v>
       </c>
@@ -6253,7 +6254,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>448</v>
       </c>
@@ -6282,7 +6283,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>448</v>
       </c>
@@ -6311,7 +6312,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>448</v>
       </c>
@@ -6340,7 +6341,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>448</v>
       </c>
@@ -6369,7 +6370,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>448</v>
       </c>
@@ -6398,7 +6399,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>448</v>
       </c>
@@ -6427,7 +6428,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>448</v>
       </c>
@@ -6456,7 +6457,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>448</v>
       </c>
@@ -6485,7 +6486,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>448</v>
       </c>
@@ -6514,7 +6515,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>448</v>
       </c>
@@ -6543,7 +6544,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>448</v>
       </c>
@@ -6572,7 +6573,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>448</v>
       </c>
@@ -6599,7 +6600,7 @@
       <c r="L131" s="11"/>
       <c r="M131" s="11"/>
     </row>
-    <row r="132" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>448</v>
       </c>
@@ -6628,7 +6629,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>448</v>
       </c>
@@ -6657,7 +6658,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="134" spans="1:13" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" s="1" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>448</v>
       </c>
@@ -6686,7 +6687,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="135" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>448</v>
       </c>
@@ -6715,7 +6716,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="136" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>448</v>
       </c>
@@ -6744,7 +6745,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="137" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>448</v>
       </c>
@@ -6773,7 +6774,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="138" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>448</v>
       </c>
@@ -6802,7 +6803,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="139" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>448</v>
       </c>
@@ -6866,7 +6867,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="141" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="23" t="s">
         <v>448</v>
       </c>
@@ -6895,7 +6896,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="142" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="23" t="s">
         <v>448</v>
       </c>
@@ -6924,7 +6925,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="143" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>448</v>
       </c>
@@ -6953,7 +6954,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="144" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>448</v>
       </c>
@@ -6982,7 +6983,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="145" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>448</v>
       </c>
@@ -7011,7 +7012,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="146" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>448</v>
       </c>
@@ -7040,7 +7041,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>448</v>
       </c>
@@ -7069,7 +7070,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>448</v>
       </c>
@@ -7098,7 +7099,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="72" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>448</v>
       </c>
@@ -7127,7 +7128,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" ht="84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="23" t="s">
         <v>448</v>
       </c>
@@ -7156,7 +7157,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="23" t="s">
         <v>448</v>
       </c>
@@ -7185,7 +7186,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="23" t="s">
         <v>448</v>
       </c>
@@ -7214,7 +7215,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="23" t="s">
         <v>448</v>
       </c>
@@ -7243,7 +7244,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" ht="84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>448</v>
       </c>
@@ -7377,7 +7378,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="s">
         <v>448</v>
       </c>
@@ -7406,7 +7407,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="11" t="s">
         <v>448</v>
       </c>
@@ -7435,7 +7436,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="11" t="s">
         <v>448</v>
       </c>
@@ -7464,7 +7465,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A161" s="11" t="s">
         <v>445</v>
       </c>
@@ -7491,13 +7492,13 @@
       </c>
       <c r="K161" s="11"/>
       <c r="L161" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="M161" s="11" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="s">
         <v>448</v>
       </c>
@@ -7524,7 +7525,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="11" t="s">
         <v>448</v>
       </c>
@@ -7553,7 +7554,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="11" t="s">
         <v>448</v>
       </c>
@@ -7582,7 +7583,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="11" t="s">
         <v>448</v>
       </c>
@@ -7611,7 +7612,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="11" t="s">
         <v>448</v>
       </c>
@@ -7640,7 +7641,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="11" t="s">
         <v>448</v>
       </c>
@@ -7671,7 +7672,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="s">
         <v>448</v>
       </c>
@@ -7700,7 +7701,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="11" t="s">
         <v>448</v>
       </c>
@@ -7729,7 +7730,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="20" t="s">
         <v>448</v>
       </c>
@@ -7760,7 +7761,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="20" t="s">
         <v>448</v>
       </c>
@@ -7791,7 +7792,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="20" t="s">
         <v>448</v>
       </c>
@@ -7822,7 +7823,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="20" t="s">
         <v>448</v>
       </c>
@@ -7853,7 +7854,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="20" t="s">
         <v>448</v>
       </c>
@@ -7884,7 +7885,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="20" t="s">
         <v>448</v>
       </c>
@@ -7915,7 +7916,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="20" t="s">
         <v>448</v>
       </c>
@@ -7944,7 +7945,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="20" t="s">
         <v>448</v>
       </c>
@@ -7975,7 +7976,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="20" t="s">
         <v>448</v>
       </c>
@@ -8006,7 +8007,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="20" t="s">
         <v>448</v>
       </c>
@@ -8037,7 +8038,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="20" t="s">
         <v>448</v>
       </c>
@@ -8068,7 +8069,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="20" t="s">
         <v>448</v>
       </c>
@@ -8099,7 +8100,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="20" t="s">
         <v>448</v>
       </c>
@@ -8128,7 +8129,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="11" t="s">
         <v>448</v>
       </c>
@@ -8186,13 +8187,13 @@
       </c>
       <c r="K184" s="11"/>
       <c r="L184" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M184" s="4" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="11" t="s">
         <v>448</v>
       </c>
@@ -8221,7 +8222,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="11" t="s">
         <v>448</v>
       </c>
@@ -8250,7 +8251,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="11" t="s">
         <v>448</v>
       </c>
@@ -8279,7 +8280,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="11" t="s">
         <v>448</v>
       </c>
@@ -8308,7 +8309,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
         <v>448</v>
       </c>
@@ -8339,7 +8340,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="11" t="s">
         <v>467</v>
       </c>
@@ -8362,7 +8363,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="11" t="s">
         <v>467</v>
       </c>
@@ -8385,7 +8386,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="s">
         <v>467</v>
       </c>
@@ -8408,7 +8409,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="s">
         <v>467</v>
       </c>
@@ -8431,7 +8432,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>468</v>
       </c>
@@ -8454,7 +8455,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="11" t="s">
         <v>467</v>
       </c>
@@ -8477,7 +8478,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="11" t="s">
         <v>467</v>
       </c>
@@ -8615,19 +8616,19 @@
       <c r="B201" s="20"/>
       <c r="C201" s="19"/>
       <c r="D201" s="11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E201" s="11"/>
       <c r="F201" s="7"/>
       <c r="G201" s="7"/>
       <c r="H201" s="7"/>
       <c r="I201" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J201" s="11"/>
       <c r="K201" s="11"/>
       <c r="L201" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M201" s="11" t="s">
         <v>484</v>
@@ -8710,7 +8711,13 @@
       <c r="B228" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I200" xr:uid="{C5F0C505-63DE-4322-BEE9-180C5089B356}"/>
+  <autoFilter ref="A1:I201" xr:uid="{C5F0C505-63DE-4322-BEE9-180C5089B356}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="remove"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
@@ -9484,6 +9491,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LCG_x0020_Document_x0020_Workflow xmlns="82D0F40D-97DD-4AB3-B4BB-3ECBE327B628">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </LCG_x0020_Document_x0020_Workflow>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="82d0f40d-97dd-4ab3-b4bb-3ecbe327b628">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9ed5a28f-e285-4793-933e-f86572ea3e88" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AAEF04E9A1B48544A813770D804417BF" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a681fcb199cf8f7d334bb0be32bb6121">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="9ed5a28f-e285-4793-933e-f86572ea3e88" xmlns:ns3="82D0F40D-97DD-4AB3-B4BB-3ECBE327B628" xmlns:ns4="a130c0bc-081d-4a7d-8c4b-0d956631a56e" xmlns:ns5="82d0f40d-97dd-4ab3-b4bb-3ecbe327b628" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="910aa554c65bba8b8ae3e351c6d836ba" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9766,50 +9799,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LCG_x0020_Document_x0020_Workflow xmlns="82D0F40D-97DD-4AB3-B4BB-3ECBE327B628">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </LCG_x0020_Document_x0020_Workflow>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="82d0f40d-97dd-4ab3-b4bb-3ecbe327b628">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9ed5a28f-e285-4793-933e-f86572ea3e88" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0EC9102-CC0B-48A4-9231-EA87BE55FEC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{444632C0-B354-4144-8906-CF8857243D1F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="9ed5a28f-e285-4793-933e-f86572ea3e88"/>
-    <ds:schemaRef ds:uri="82D0F40D-97DD-4AB3-B4BB-3ECBE327B628"/>
-    <ds:schemaRef ds:uri="a130c0bc-081d-4a7d-8c4b-0d956631a56e"/>
-    <ds:schemaRef ds:uri="82d0f40d-97dd-4ab3-b4bb-3ecbe327b628"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9835,9 +9828,23 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{444632C0-B354-4144-8906-CF8857243D1F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0EC9102-CC0B-48A4-9231-EA87BE55FEC3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="9ed5a28f-e285-4793-933e-f86572ea3e88"/>
+    <ds:schemaRef ds:uri="82D0F40D-97DD-4AB3-B4BB-3ECBE327B628"/>
+    <ds:schemaRef ds:uri="a130c0bc-081d-4a7d-8c4b-0d956631a56e"/>
+    <ds:schemaRef ds:uri="82d0f40d-97dd-4ab3-b4bb-3ecbe327b628"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/requirements/Anonymized eicrdataneedsv14_working.xlsx
+++ b/requirements/Anonymized eicrdataneedsv14_working.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minigrrl\Dropbox\12_SourceControl\GitHub\Lantana\FHIR-us-eicr-anonymized\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CAD8D7-0DDB-49FA-82E8-5D2B76B8FA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E19EF8E-55A2-41F4-AF24-41D8C04886F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{285485E5-942A-4B88-BF4B-14F3EF0BB33E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{285485E5-942A-4B88-BF4B-14F3EF0BB33E}"/>
   </bookViews>
   <sheets>
     <sheet name="eICR Data" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="597">
   <si>
     <t>eICR Data Element</t>
   </si>
@@ -1618,32 +1618,7 @@
     <t>Anonymized Profile</t>
   </si>
   <si>
-    <t>ECRAnonymizedPatient</t>
-  </si>
-  <si>
-    <t>ECRAnonymizedImmunization</t>
-  </si>
-  <si>
-    <t>ECRAnonymizedPractitioner</t>
-  </si>
-  <si>
-    <t>ECRAnonymizedOrganization</t>
-  </si>
-  <si>
-    <t>ECRAnonymizedRelatedPerson</t>
-  </si>
-  <si>
-    <t>ECRAnonymizedPractitioner
-ECRAnonymizedPractitionerRole</t>
-  </si>
-  <si>
     <t>eICR Composition.sliceHistoryOfPresentIllness</t>
-  </si>
-  <si>
-    <t>ECRAnonymizedComposition</t>
-  </si>
-  <si>
-    <t>ECRAnonymizedPastOrPresentJob</t>
   </si>
   <si>
     <t>US Core Practitioner.identifier
@@ -1871,18 +1846,6 @@
     <t>patient</t>
   </si>
   <si>
-    <t>ECRAnonymizedOrganizationTelecom</t>
-  </si>
-  <si>
-    <t>Reference ECRAnonymizedRelatedPerson or ECRAnonymizedOrganizationNameAddrTele</t>
-  </si>
-  <si>
-    <t>ECRAnonymizedOrganizationAddrTele</t>
-  </si>
-  <si>
-    <t>ECRAnonymizedOrganizationTele</t>
-  </si>
-  <si>
     <t>eICR Composition.slicePastMedicalHistory</t>
   </si>
   <si>
@@ -1902,6 +1865,37 @@
   </si>
   <si>
     <t>prescribe MASKED text in section.text.div (had to use a constraint for this because the xHtml data type doesn't allow fixing a value)</t>
+  </si>
+  <si>
+    <t>EICRAnonymizedPatient</t>
+  </si>
+  <si>
+    <t>EICRAnonymizedPractitioner</t>
+  </si>
+  <si>
+    <t>EICRAnonymizedPractitioner
+EICRAnonymizedPractitionerRole</t>
+  </si>
+  <si>
+    <t>EICRAnonymizedOrgTeleAddr</t>
+  </si>
+  <si>
+    <t>EICRAnonymizedOrgTele</t>
+  </si>
+  <si>
+    <t>EICRAnonymizedComposition</t>
+  </si>
+  <si>
+    <t>EICRAnonymizedImmunization</t>
+  </si>
+  <si>
+    <t>EICRAnonymizedPastOrPresentJob</t>
+  </si>
+  <si>
+    <t>EICRAnonymizedRelatedPerson</t>
+  </si>
+  <si>
+    <t>Reference EICRAnonymizedRelatedPerson or EICRAnonymizedOrgTeleAddrName</t>
   </si>
 </sst>
 </file>
@@ -2434,13 +2428,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F0C505-63DE-4322-BEE9-180C5089B356}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="L198" sqref="L198"/>
+      <selection pane="bottomLeft" activeCell="J155" sqref="J155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2500,7 +2493,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>448</v>
       </c>
@@ -2533,7 +2526,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>448</v>
       </c>
@@ -2562,7 +2555,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>448</v>
       </c>
@@ -2591,7 +2584,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>448</v>
       </c>
@@ -2649,7 +2642,7 @@
         <v>471</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="5"/>
@@ -2684,7 +2677,7 @@
         <v>472</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="5"/>
@@ -2719,7 +2712,7 @@
         <v>473</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>479</v>
@@ -2758,7 +2751,7 @@
         <v>473</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>480</v>
@@ -2797,7 +2790,7 @@
         <v>474</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
@@ -2832,7 +2825,7 @@
         <v>475</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>479</v>
@@ -2871,7 +2864,7 @@
         <v>475</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>480</v>
@@ -2910,7 +2903,7 @@
         <v>476</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
@@ -2918,7 +2911,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>462</v>
       </c>
@@ -2947,7 +2940,7 @@
         <v>477</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="5"/>
@@ -2955,7 +2948,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>463</v>
       </c>
@@ -2984,7 +2977,7 @@
         <v>485</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="5" t="s">
@@ -2994,7 +2987,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>448</v>
       </c>
@@ -3025,7 +3018,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>448</v>
       </c>
@@ -3056,7 +3049,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>448</v>
       </c>
@@ -3085,7 +3078,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>448</v>
       </c>
@@ -3118,7 +3111,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>448</v>
       </c>
@@ -3151,7 +3144,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>448</v>
       </c>
@@ -3184,7 +3177,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>448</v>
       </c>
@@ -3217,7 +3210,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>448</v>
       </c>
@@ -3248,7 +3241,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>448</v>
       </c>
@@ -3277,7 +3270,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>448</v>
       </c>
@@ -3308,7 +3301,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>448</v>
       </c>
@@ -3337,7 +3330,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>448</v>
       </c>
@@ -3366,7 +3359,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>448</v>
       </c>
@@ -3395,7 +3388,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>448</v>
       </c>
@@ -3419,7 +3412,7 @@
         <v>42</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -3455,7 +3448,7 @@
         <v>487</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>507</v>
+        <v>588</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="5"/>
@@ -3487,10 +3480,10 @@
         <v>47</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>510</v>
+        <v>589</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="5" t="s">
@@ -3524,10 +3517,10 @@
         <v>49</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>510</v>
+        <v>589</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="5" t="s">
@@ -3561,10 +3554,10 @@
         <v>51</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>510</v>
+        <v>589</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="5" t="s">
@@ -3574,7 +3567,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>448</v>
       </c>
@@ -3600,9 +3593,7 @@
       <c r="I34" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="J34" s="4" t="s">
-        <v>508</v>
-      </c>
+      <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4" t="s">
@@ -3644,7 +3635,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>448</v>
       </c>
@@ -3675,7 +3666,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>448</v>
       </c>
@@ -3703,16 +3694,14 @@
       <c r="I37" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="J37" s="4" t="s">
-        <v>508</v>
-      </c>
+      <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>448</v>
       </c>
@@ -3770,7 +3759,7 @@
         <v>489</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>508</v>
+        <v>591</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="5" t="s">
@@ -3807,7 +3796,7 @@
         <v>489</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>508</v>
+        <v>591</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="5" t="s">
@@ -3817,7 +3806,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>448</v>
       </c>
@@ -3843,7 +3832,7 @@
         <v>375</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -3852,7 +3841,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>448</v>
       </c>
@@ -3883,7 +3872,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>448</v>
       </c>
@@ -3905,7 +3894,7 @@
         <v>392</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -3914,7 +3903,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>448</v>
       </c>
@@ -3945,7 +3934,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>448</v>
       </c>
@@ -3970,7 +3959,7 @@
         <v>503</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
@@ -3978,7 +3967,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>448</v>
       </c>
@@ -4003,7 +3992,7 @@
         <v>499</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -4011,7 +4000,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>448</v>
       </c>
@@ -4036,7 +4025,7 @@
         <v>500</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -4044,7 +4033,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>448</v>
       </c>
@@ -4069,7 +4058,7 @@
         <v>501</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -4112,7 +4101,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>448</v>
       </c>
@@ -4141,7 +4130,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>448</v>
       </c>
@@ -4170,7 +4159,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>448</v>
       </c>
@@ -4199,7 +4188,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>448</v>
       </c>
@@ -4228,7 +4217,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>448</v>
       </c>
@@ -4259,7 +4248,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>448</v>
       </c>
@@ -4290,7 +4279,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>448</v>
       </c>
@@ -4321,7 +4310,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>448</v>
       </c>
@@ -4350,7 +4339,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>448</v>
       </c>
@@ -4381,7 +4370,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>448</v>
       </c>
@@ -4410,7 +4399,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>448</v>
       </c>
@@ -4441,7 +4430,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>448</v>
       </c>
@@ -4470,7 +4459,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>448</v>
       </c>
@@ -4501,7 +4490,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>448</v>
       </c>
@@ -4530,7 +4519,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>448</v>
       </c>
@@ -4561,7 +4550,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>448</v>
       </c>
@@ -4592,7 +4581,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>448</v>
       </c>
@@ -4625,7 +4614,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>448</v>
       </c>
@@ -4680,20 +4669,20 @@
         <v>281</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>512</v>
+        <v>592</v>
       </c>
       <c r="K68" s="4"/>
       <c r="L68" s="7" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>448</v>
       </c>
@@ -4724,7 +4713,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>448</v>
       </c>
@@ -4755,7 +4744,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>448</v>
       </c>
@@ -4786,7 +4775,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>448</v>
       </c>
@@ -4817,7 +4806,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>448</v>
       </c>
@@ -4850,7 +4839,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>448</v>
       </c>
@@ -4881,7 +4870,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>448</v>
       </c>
@@ -4912,7 +4901,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>448</v>
       </c>
@@ -4945,7 +4934,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>448</v>
       </c>
@@ -4978,7 +4967,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="78" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>448</v>
       </c>
@@ -5009,7 +4998,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>448</v>
       </c>
@@ -5040,7 +5029,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="80" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>448</v>
       </c>
@@ -5071,7 +5060,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>448</v>
       </c>
@@ -5100,7 +5089,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="82" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>448</v>
       </c>
@@ -5131,7 +5120,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="83" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>448</v>
       </c>
@@ -5162,7 +5151,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="84" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>448</v>
       </c>
@@ -5191,7 +5180,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="85" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>448</v>
       </c>
@@ -5220,7 +5209,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="86" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>448</v>
       </c>
@@ -5249,7 +5238,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="87" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>448</v>
       </c>
@@ -5278,7 +5267,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="88" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>448</v>
       </c>
@@ -5309,7 +5298,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="89" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>448</v>
       </c>
@@ -5338,7 +5327,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="90" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>448</v>
       </c>
@@ -5369,7 +5358,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="91" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>448</v>
       </c>
@@ -5400,7 +5389,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="92" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>448</v>
       </c>
@@ -5431,7 +5420,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="93" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>448</v>
       </c>
@@ -5462,7 +5451,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="94" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>448</v>
       </c>
@@ -5493,7 +5482,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="95" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>448</v>
       </c>
@@ -5526,7 +5515,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="96" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>448</v>
       </c>
@@ -5557,7 +5546,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="97" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>448</v>
       </c>
@@ -5588,7 +5577,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="98" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>448</v>
       </c>
@@ -5619,7 +5608,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="99" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>448</v>
       </c>
@@ -5650,7 +5639,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="100" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>448</v>
       </c>
@@ -5681,7 +5670,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="101" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>448</v>
       </c>
@@ -5712,7 +5701,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="102" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>448</v>
       </c>
@@ -5743,7 +5732,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A103" s="23" t="s">
         <v>448</v>
       </c>
@@ -5774,7 +5763,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="104" spans="1:13" s="1" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A104" s="23" t="s">
         <v>448</v>
       </c>
@@ -5805,7 +5794,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="105" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>448</v>
       </c>
@@ -5836,7 +5825,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="106" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>448</v>
       </c>
@@ -5867,7 +5856,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="107" spans="1:13" s="1" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>448</v>
       </c>
@@ -5900,7 +5889,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="108" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>448</v>
       </c>
@@ -5933,7 +5922,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="109" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>448</v>
       </c>
@@ -5964,7 +5953,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>448</v>
       </c>
@@ -5993,7 +5982,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>448</v>
       </c>
@@ -6022,7 +6011,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>448</v>
       </c>
@@ -6051,7 +6040,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>448</v>
       </c>
@@ -6080,7 +6069,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>448</v>
       </c>
@@ -6109,7 +6098,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>448</v>
       </c>
@@ -6138,7 +6127,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>448</v>
       </c>
@@ -6167,7 +6156,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>448</v>
       </c>
@@ -6196,7 +6185,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>448</v>
       </c>
@@ -6225,7 +6214,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>448</v>
       </c>
@@ -6254,7 +6243,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>448</v>
       </c>
@@ -6283,7 +6272,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>448</v>
       </c>
@@ -6312,7 +6301,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>448</v>
       </c>
@@ -6341,7 +6330,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>448</v>
       </c>
@@ -6370,7 +6359,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>448</v>
       </c>
@@ -6399,7 +6388,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>448</v>
       </c>
@@ -6428,7 +6417,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>448</v>
       </c>
@@ -6457,7 +6446,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>448</v>
       </c>
@@ -6486,7 +6475,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>448</v>
       </c>
@@ -6515,7 +6504,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>448</v>
       </c>
@@ -6544,7 +6533,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>448</v>
       </c>
@@ -6573,7 +6562,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>448</v>
       </c>
@@ -6600,7 +6589,7 @@
       <c r="L131" s="11"/>
       <c r="M131" s="11"/>
     </row>
-    <row r="132" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>448</v>
       </c>
@@ -6629,7 +6618,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>448</v>
       </c>
@@ -6658,7 +6647,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="134" spans="1:13" s="1" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>448</v>
       </c>
@@ -6687,7 +6676,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="135" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>448</v>
       </c>
@@ -6716,7 +6705,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="136" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>448</v>
       </c>
@@ -6745,7 +6734,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="137" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>448</v>
       </c>
@@ -6774,7 +6763,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="138" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>448</v>
       </c>
@@ -6803,7 +6792,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="139" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>448</v>
       </c>
@@ -6857,7 +6846,7 @@
         <v>490</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>506</v>
+        <v>593</v>
       </c>
       <c r="K140" s="4"/>
       <c r="L140" s="5" t="s">
@@ -6867,7 +6856,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="141" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A141" s="23" t="s">
         <v>448</v>
       </c>
@@ -6896,7 +6885,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="142" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A142" s="23" t="s">
         <v>448</v>
       </c>
@@ -6925,7 +6914,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="143" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>448</v>
       </c>
@@ -6954,7 +6943,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="144" spans="1:13" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>448</v>
       </c>
@@ -6983,7 +6972,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="145" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>448</v>
       </c>
@@ -7012,7 +7001,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="146" spans="1:13" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>448</v>
       </c>
@@ -7041,7 +7030,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>448</v>
       </c>
@@ -7070,7 +7059,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>448</v>
       </c>
@@ -7099,7 +7088,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" ht="72" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>448</v>
       </c>
@@ -7128,7 +7117,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="84" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" ht="84" x14ac:dyDescent="0.2">
       <c r="A150" s="23" t="s">
         <v>448</v>
       </c>
@@ -7157,7 +7146,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A151" s="23" t="s">
         <v>448</v>
       </c>
@@ -7186,7 +7175,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A152" s="23" t="s">
         <v>448</v>
       </c>
@@ -7215,7 +7204,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A153" s="23" t="s">
         <v>448</v>
       </c>
@@ -7244,7 +7233,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="84" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" ht="84" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>448</v>
       </c>
@@ -7273,7 +7262,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="108" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" ht="96" x14ac:dyDescent="0.2">
       <c r="A155" s="11" t="s">
         <v>445</v>
       </c>
@@ -7298,11 +7287,11 @@
         <v>497</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>513</v>
+        <v>594</v>
       </c>
       <c r="K155" s="11"/>
       <c r="L155" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="M155" s="11" t="s">
         <v>484</v>
@@ -7333,17 +7322,17 @@
         <v>497</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>513</v>
+        <v>594</v>
       </c>
       <c r="K156" s="11"/>
       <c r="L156" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="M156" s="11" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="108" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" ht="96" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="s">
         <v>445</v>
       </c>
@@ -7368,17 +7357,17 @@
         <v>497</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>513</v>
+        <v>594</v>
       </c>
       <c r="K157" s="11"/>
       <c r="L157" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="M157" s="11" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="s">
         <v>448</v>
       </c>
@@ -7407,7 +7396,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A159" s="11" t="s">
         <v>448</v>
       </c>
@@ -7436,7 +7425,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A160" s="11" t="s">
         <v>448</v>
       </c>
@@ -7485,20 +7474,20 @@
         <v>179</v>
       </c>
       <c r="I161" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="J161" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="J161" s="4" t="s">
-        <v>512</v>
       </c>
       <c r="K161" s="11"/>
       <c r="L161" s="7" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="M161" s="11" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="s">
         <v>448</v>
       </c>
@@ -7525,7 +7514,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A163" s="11" t="s">
         <v>448</v>
       </c>
@@ -7554,7 +7543,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A164" s="11" t="s">
         <v>448</v>
       </c>
@@ -7583,7 +7572,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A165" s="11" t="s">
         <v>448</v>
       </c>
@@ -7612,7 +7601,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A166" s="11" t="s">
         <v>448</v>
       </c>
@@ -7641,7 +7630,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A167" s="11" t="s">
         <v>448</v>
       </c>
@@ -7672,7 +7661,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="s">
         <v>448</v>
       </c>
@@ -7701,7 +7690,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A169" s="11" t="s">
         <v>448</v>
       </c>
@@ -7730,7 +7719,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A170" s="20" t="s">
         <v>448</v>
       </c>
@@ -7761,7 +7750,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A171" s="20" t="s">
         <v>448</v>
       </c>
@@ -7792,7 +7781,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A172" s="20" t="s">
         <v>448</v>
       </c>
@@ -7823,7 +7812,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A173" s="20" t="s">
         <v>448</v>
       </c>
@@ -7854,7 +7843,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A174" s="20" t="s">
         <v>448</v>
       </c>
@@ -7885,7 +7874,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A175" s="20" t="s">
         <v>448</v>
       </c>
@@ -7916,7 +7905,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A176" s="20" t="s">
         <v>448</v>
       </c>
@@ -7945,7 +7934,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A177" s="20" t="s">
         <v>448</v>
       </c>
@@ -7976,7 +7965,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A178" s="20" t="s">
         <v>448</v>
       </c>
@@ -8007,7 +7996,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A179" s="20" t="s">
         <v>448</v>
       </c>
@@ -8038,7 +8027,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A180" s="20" t="s">
         <v>448</v>
       </c>
@@ -8069,7 +8058,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A181" s="20" t="s">
         <v>448</v>
       </c>
@@ -8100,7 +8089,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A182" s="20" t="s">
         <v>448</v>
       </c>
@@ -8129,7 +8118,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A183" s="11" t="s">
         <v>448</v>
       </c>
@@ -8180,20 +8169,20 @@
         <v>357</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>512</v>
+        <v>592</v>
       </c>
       <c r="K184" s="11"/>
       <c r="L184" s="7" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="M184" s="4" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A185" s="11" t="s">
         <v>448</v>
       </c>
@@ -8222,7 +8211,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A186" s="11" t="s">
         <v>448</v>
       </c>
@@ -8251,7 +8240,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A187" s="11" t="s">
         <v>448</v>
       </c>
@@ -8280,7 +8269,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A188" s="11" t="s">
         <v>448</v>
       </c>
@@ -8309,7 +8298,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
         <v>448</v>
       </c>
@@ -8340,7 +8329,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="11" t="s">
         <v>467</v>
       </c>
@@ -8363,7 +8352,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="11" t="s">
         <v>467</v>
       </c>
@@ -8386,7 +8375,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="s">
         <v>467</v>
       </c>
@@ -8409,7 +8398,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="s">
         <v>467</v>
       </c>
@@ -8432,7 +8421,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>468</v>
       </c>
@@ -8455,7 +8444,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="11" t="s">
         <v>467</v>
       </c>
@@ -8478,7 +8467,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="11" t="s">
         <v>467</v>
       </c>
@@ -8518,7 +8507,7 @@
         <v>492</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>509</v>
+        <v>595</v>
       </c>
       <c r="K197" s="11"/>
       <c r="L197" s="7" t="s">
@@ -8545,7 +8534,7 @@
         <v>493</v>
       </c>
       <c r="J198" s="4" t="s">
-        <v>509</v>
+        <v>595</v>
       </c>
       <c r="K198" s="11"/>
       <c r="L198" s="7" t="s">
@@ -8572,7 +8561,7 @@
         <v>495</v>
       </c>
       <c r="J199" s="4" t="s">
-        <v>509</v>
+        <v>595</v>
       </c>
       <c r="K199" s="11"/>
       <c r="L199" s="7" t="s">
@@ -8599,7 +8588,7 @@
         <v>494</v>
       </c>
       <c r="J200" s="4" t="s">
-        <v>509</v>
+        <v>595</v>
       </c>
       <c r="K200" s="11"/>
       <c r="L200" s="7" t="s">
@@ -8616,19 +8605,19 @@
       <c r="B201" s="20"/>
       <c r="C201" s="19"/>
       <c r="D201" s="11" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="E201" s="11"/>
       <c r="F201" s="7"/>
       <c r="G201" s="7"/>
       <c r="H201" s="7"/>
       <c r="I201" s="22" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="J201" s="11"/>
       <c r="K201" s="11"/>
       <c r="L201" s="7" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="M201" s="11" t="s">
         <v>484</v>
@@ -8711,13 +8700,7 @@
       <c r="B228" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I201" xr:uid="{C5F0C505-63DE-4322-BEE9-180C5089B356}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="remove"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I201" xr:uid="{C5F0C505-63DE-4322-BEE9-180C5089B356}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
@@ -8749,34 +8732,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="K1" s="25" t="s">
         <v>502</v>
@@ -8784,13 +8767,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>484</v>
@@ -8813,10 +8796,10 @@
     </row>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>484</v>
@@ -8833,10 +8816,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>484</v>
@@ -8850,10 +8833,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>484</v>
@@ -8876,13 +8859,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>484</v>
@@ -8905,10 +8888,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>484</v>
@@ -8916,10 +8899,10 @@
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>484</v>
@@ -8927,13 +8910,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>484</v>
@@ -8944,10 +8927,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>484</v>
@@ -8976,10 +8959,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>484</v>
@@ -8993,13 +8976,13 @@
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>484</v>
@@ -9013,10 +8996,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>484</v>
@@ -9036,10 +9019,10 @@
     </row>
     <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>484</v>
@@ -9047,13 +9030,13 @@
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>484</v>
@@ -9061,10 +9044,10 @@
     </row>
     <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>484</v>
@@ -9072,10 +9055,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>484</v>
@@ -9083,13 +9066,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>484</v>
@@ -9112,13 +9095,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>576</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>484</v>
@@ -9141,13 +9124,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>484</v>
@@ -9155,13 +9138,13 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>484</v>
@@ -9169,13 +9152,13 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>484</v>
@@ -9183,10 +9166,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>484</v>
@@ -9194,13 +9177,13 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>484</v>
@@ -9211,13 +9194,13 @@
     </row>
     <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>484</v>
@@ -9228,13 +9211,13 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>484</v>
@@ -9254,7 +9237,7 @@
     </row>
     <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>484</v>
@@ -9262,13 +9245,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>484</v>
@@ -9276,10 +9259,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>484</v>
@@ -9305,10 +9288,10 @@
     </row>
     <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>484</v>
@@ -9316,10 +9299,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>484</v>
@@ -9327,10 +9310,10 @@
     </row>
     <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>484</v>
@@ -9341,10 +9324,10 @@
     </row>
     <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>484</v>
@@ -9361,10 +9344,10 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>484</v>
@@ -9384,10 +9367,10 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>484</v>
@@ -9410,13 +9393,13 @@
     </row>
     <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>484</v>
@@ -9427,16 +9410,16 @@
     </row>
     <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>484</v>
@@ -9444,13 +9427,13 @@
     </row>
     <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>484</v>
@@ -9458,7 +9441,7 @@
     </row>
     <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>484</v>
@@ -9466,13 +9449,13 @@
     </row>
     <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -9491,32 +9474,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LCG_x0020_Document_x0020_Workflow xmlns="82D0F40D-97DD-4AB3-B4BB-3ECBE327B628">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </LCG_x0020_Document_x0020_Workflow>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="82d0f40d-97dd-4ab3-b4bb-3ecbe327b628">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9ed5a28f-e285-4793-933e-f86572ea3e88" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AAEF04E9A1B48544A813770D804417BF" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a681fcb199cf8f7d334bb0be32bb6121">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="9ed5a28f-e285-4793-933e-f86572ea3e88" xmlns:ns3="82D0F40D-97DD-4AB3-B4BB-3ECBE327B628" xmlns:ns4="a130c0bc-081d-4a7d-8c4b-0d956631a56e" xmlns:ns5="82d0f40d-97dd-4ab3-b4bb-3ecbe327b628" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="910aa554c65bba8b8ae3e351c6d836ba" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9799,10 +9756,50 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LCG_x0020_Document_x0020_Workflow xmlns="82D0F40D-97DD-4AB3-B4BB-3ECBE327B628">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </LCG_x0020_Document_x0020_Workflow>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="82d0f40d-97dd-4ab3-b4bb-3ecbe327b628">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9ed5a28f-e285-4793-933e-f86572ea3e88" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{444632C0-B354-4144-8906-CF8857243D1F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0EC9102-CC0B-48A4-9231-EA87BE55FEC3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="9ed5a28f-e285-4793-933e-f86572ea3e88"/>
+    <ds:schemaRef ds:uri="82D0F40D-97DD-4AB3-B4BB-3ECBE327B628"/>
+    <ds:schemaRef ds:uri="a130c0bc-081d-4a7d-8c4b-0d956631a56e"/>
+    <ds:schemaRef ds:uri="82d0f40d-97dd-4ab3-b4bb-3ecbe327b628"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9828,23 +9825,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0EC9102-CC0B-48A4-9231-EA87BE55FEC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{444632C0-B354-4144-8906-CF8857243D1F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="9ed5a28f-e285-4793-933e-f86572ea3e88"/>
-    <ds:schemaRef ds:uri="82D0F40D-97DD-4AB3-B4BB-3ECBE327B628"/>
-    <ds:schemaRef ds:uri="a130c0bc-081d-4a7d-8c4b-0d956631a56e"/>
-    <ds:schemaRef ds:uri="82d0f40d-97dd-4ab3-b4bb-3ecbe327b628"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/requirements/Anonymized eicrdataneedsv14_working.xlsx
+++ b/requirements/Anonymized eicrdataneedsv14_working.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minigrrl\Dropbox\12_SourceControl\GitHub\Lantana\FHIR-us-eicr-anonymized\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E19EF8E-55A2-41F4-AF24-41D8C04886F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EC89A4-FC91-4875-8A68-40DCE6117F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{285485E5-942A-4B88-BF4B-14F3EF0BB33E}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{285485E5-942A-4B88-BF4B-14F3EF0BB33E}"/>
   </bookViews>
   <sheets>
     <sheet name="eICR Data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'data elements'!$A$1:$K$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'eICR Data'!$A$1:$I$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'eICR Data'!$A$1:$N$201</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="596">
   <si>
     <t>eICR Data Element</t>
   </si>
@@ -1877,12 +1877,6 @@
 EICRAnonymizedPractitionerRole</t>
   </si>
   <si>
-    <t>EICRAnonymizedOrgTeleAddr</t>
-  </si>
-  <si>
-    <t>EICRAnonymizedOrgTele</t>
-  </si>
-  <si>
     <t>EICRAnonymizedComposition</t>
   </si>
   <si>
@@ -1896,6 +1890,9 @@
   </si>
   <si>
     <t>Reference EICRAnonymizedRelatedPerson or EICRAnonymizedOrgTeleAddrName</t>
+  </si>
+  <si>
+    <t>Keep/Remove</t>
   </si>
 </sst>
 </file>
@@ -1961,7 +1958,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1983,6 +1980,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2029,7 +2032,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2107,6 +2110,17 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2428,12 +2442,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F0C505-63DE-4322-BEE9-180C5089B356}">
-  <dimension ref="A1:M228"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="J155" sqref="J155"/>
+      <selection pane="bottomLeft" activeCell="K161" sqref="K161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2441,18 +2456,19 @@
     <col min="1" max="1" width="18.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="12" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" style="12" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="28" style="9" customWidth="1"/>
-    <col min="7" max="8" width="32.85546875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="32.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="47.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="27.140625" style="9" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="4" width="10.85546875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28" style="9" customWidth="1"/>
+    <col min="8" max="9" width="32.85546875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="32.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="47.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="27.140625" style="9" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>444</v>
       </c>
@@ -2462,38 +2478,41 @@
       <c r="C1" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>448</v>
       </c>
@@ -2503,117 +2522,133 @@
       <c r="C2" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="23" t="str">
+        <f>A2</f>
+        <v>keep</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>448</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="23" t="str">
+        <f t="shared" ref="D3:D66" si="0">A3</f>
+        <v>keep</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>445</v>
       </c>
@@ -2623,34 +2658,38 @@
       <c r="C6" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>remove</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="L6" s="4"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>445</v>
       </c>
@@ -2658,34 +2697,38 @@
         <v>447</v>
       </c>
       <c r="C7" s="15"/>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>remove</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="L7" s="4"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>445</v>
       </c>
@@ -2693,38 +2736,42 @@
         <v>447</v>
       </c>
       <c r="C8" s="15"/>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>remove</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="N8" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>445</v>
       </c>
@@ -2732,38 +2779,42 @@
         <v>447</v>
       </c>
       <c r="C9" s="15"/>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>remove</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="M9" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="N9" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>445</v>
       </c>
@@ -2771,34 +2822,38 @@
         <v>447</v>
       </c>
       <c r="C10" s="15"/>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>remove</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="L10" s="4"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>445</v>
       </c>
@@ -2806,38 +2861,42 @@
         <v>447</v>
       </c>
       <c r="C11" s="15"/>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>remove</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="M11" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="N11" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>445</v>
       </c>
@@ -2845,38 +2904,42 @@
         <v>447</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>remove</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="N12" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>445</v>
       </c>
@@ -2884,34 +2947,38 @@
         <v>447</v>
       </c>
       <c r="C13" s="15"/>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>remove</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="L13" s="4"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>462</v>
       </c>
@@ -2921,34 +2988,39 @@
       <c r="C14" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>remove street number and name; 
+keep city, county, state, and zipcode</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="L14" s="4"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>463</v>
       </c>
@@ -2958,36 +3030,40 @@
       <c r="C15" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>remove but add age/age units</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="4"/>
+      <c r="M15" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="M15" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="N15" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>448</v>
       </c>
@@ -2995,30 +3071,34 @@
       <c r="C16" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="M16" s="4"/>
+      <c r="N16" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>448</v>
       </c>
@@ -3026,59 +3106,67 @@
       <c r="C17" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M17" s="4"/>
+      <c r="N17" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
-      <c r="M18" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M18" s="11"/>
+      <c r="N18" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>448</v>
       </c>
@@ -3088,30 +3176,34 @@
       <c r="C19" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M19" s="4"/>
+      <c r="N19" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>448</v>
       </c>
@@ -3121,30 +3213,34 @@
       <c r="C20" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M20" s="4"/>
+      <c r="N20" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>448</v>
       </c>
@@ -3154,30 +3250,34 @@
       <c r="C21" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M21" s="4"/>
+      <c r="N21" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>448</v>
       </c>
@@ -3187,30 +3287,34 @@
       <c r="C22" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="M22" s="4"/>
+      <c r="N22" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>448</v>
       </c>
@@ -3218,59 +3322,67 @@
         <v>447</v>
       </c>
       <c r="C23" s="15"/>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="I23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M23" s="4"/>
+      <c r="N23" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M24" s="4"/>
+      <c r="N24" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>448</v>
       </c>
@@ -3278,117 +3390,133 @@
         <v>447</v>
       </c>
       <c r="C25" s="15"/>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="I25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M25" s="4"/>
+      <c r="N25" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="M26" s="4"/>
+      <c r="N26" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="I27" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M27" s="4"/>
+      <c r="N27" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="I28" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="M28" s="4"/>
+      <c r="N28" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>448</v>
       </c>
@@ -3396,32 +3524,36 @@
       <c r="C29" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="I29" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="J29" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="M29" s="4"/>
+      <c r="N29" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>445</v>
       </c>
@@ -3429,34 +3561,38 @@
         <v>447</v>
       </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>remove</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="I30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="J30" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="K30" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="L30" s="4"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>445</v>
       </c>
@@ -3464,36 +3600,40 @@
         <v>447</v>
       </c>
       <c r="C31" s="15"/>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>remove</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="I31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="J31" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="K31" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="5" t="s">
+      <c r="L31" s="4"/>
+      <c r="M31" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="M31" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="N31" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>445</v>
       </c>
@@ -3501,36 +3641,40 @@
         <v>447</v>
       </c>
       <c r="C32" s="15"/>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>remove</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="I32" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="J32" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="K32" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="5" t="s">
+      <c r="L32" s="4"/>
+      <c r="M32" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="M32" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="N32" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>445</v>
       </c>
@@ -3538,36 +3682,40 @@
         <v>447</v>
       </c>
       <c r="C33" s="15"/>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>remove</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="I33" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="J33" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="K33" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="5" t="s">
+      <c r="L33" s="4"/>
+      <c r="M33" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="M33" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="N33" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="1" customFormat="1" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>448</v>
       </c>
@@ -3575,67 +3723,74 @@
         <v>465</v>
       </c>
       <c r="C34" s="15"/>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="I34" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="J34" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="M34" s="4"/>
+      <c r="N34" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="1" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="4" t="s">
+      <c r="C35" s="28"/>
+      <c r="D35" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="I35" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="K35" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>448</v>
       </c>
@@ -3643,30 +3798,34 @@
       <c r="C36" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="I36" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="M36" s="4"/>
+      <c r="N36" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="1" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>448</v>
       </c>
@@ -3676,32 +3835,36 @@
       <c r="C37" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="H37" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="I37" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="J37" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="M37" s="4"/>
+      <c r="N37" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>448</v>
       </c>
@@ -3709,104 +3872,110 @@
       <c r="C38" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="H38" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="I38" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="M38" s="4"/>
+      <c r="N38" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="1" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="4" t="s">
+      <c r="C39" s="28"/>
+      <c r="D39" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="H39" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="I39" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="J39" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="J39" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="K39" s="4"/>
-      <c r="L39" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="K39" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="1" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="4" t="s">
+      <c r="C40" s="28"/>
+      <c r="D40" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="H40" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="I40" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="J40" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="J40" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="K40" s="4"/>
-      <c r="L40" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="K40" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>448</v>
       </c>
@@ -3816,408 +3985,457 @@
       <c r="C41" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="H41" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="I41" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="J41" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M41" s="4"/>
+      <c r="N41" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="H42" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="I42" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="J42" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M42" s="4"/>
+      <c r="N42" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="H43" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="I43" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="J43" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M43" s="4"/>
+      <c r="N43" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="H44" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="I44" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="J44" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M44" s="4"/>
+      <c r="N44" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="H45" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="I45" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="J45" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="J45" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="K45" s="4"/>
+      <c r="K45" s="4" t="s">
+        <v>483</v>
+      </c>
       <c r="L45" s="4"/>
-      <c r="M45" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="M45" s="4"/>
+      <c r="N45" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="H46" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="I46" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="J46" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="J46" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="K46" s="4"/>
+      <c r="K46" s="4" t="s">
+        <v>483</v>
+      </c>
       <c r="L46" s="4"/>
-      <c r="M46" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="M46" s="4"/>
+      <c r="N46" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="H47" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="I47" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="J47" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="J47" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="K47" s="4"/>
+      <c r="K47" s="4" t="s">
+        <v>483</v>
+      </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="M47" s="4"/>
+      <c r="N47" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="H48" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="I48" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="J48" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="K48" s="4"/>
+      <c r="K48" s="4" t="s">
+        <v>483</v>
+      </c>
       <c r="L48" s="4"/>
-      <c r="M48" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="M48" s="4"/>
+      <c r="N48" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="4" t="s">
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="H49" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="I49" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="J49" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="J49" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="K49" s="4"/>
-      <c r="L49" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="M49" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="K49" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="L49" s="4"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="H50" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="I50" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M50" s="4"/>
+      <c r="N50" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="H51" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="I51" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M51" s="4"/>
+      <c r="N51" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="F52" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="G52" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="H52" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="I52" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M52" s="4"/>
+      <c r="N52" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="F53" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="G53" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="H53" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="I53" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M53" s="4"/>
+      <c r="N53" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>448</v>
       </c>
@@ -4225,30 +4443,34 @@
         <v>447</v>
       </c>
       <c r="C54" s="15"/>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="F54" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="G54" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="H54" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="I54" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M54" s="4"/>
+      <c r="N54" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>448</v>
       </c>
@@ -4256,30 +4478,34 @@
         <v>447</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="F55" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="G55" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="H55" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="I55" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M55" s="4"/>
+      <c r="N55" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>448</v>
       </c>
@@ -4287,59 +4513,67 @@
         <v>447</v>
       </c>
       <c r="C56" s="15"/>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="G56" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="H56" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="I56" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M56" s="4"/>
+      <c r="N56" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="G57" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="H57" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="I57" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M57" s="4"/>
+      <c r="N57" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>448</v>
       </c>
@@ -4347,59 +4581,67 @@
         <v>447</v>
       </c>
       <c r="C58" s="15"/>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="F58" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="G58" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="H58" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="I58" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M58" s="4"/>
+      <c r="N58" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="F59" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="G59" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="H59" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="I59" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M59" s="4"/>
+      <c r="N59" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>448</v>
       </c>
@@ -4407,59 +4649,67 @@
         <v>447</v>
       </c>
       <c r="C60" s="15"/>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="F60" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="G60" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="H60" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="I60" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M60" s="4"/>
+      <c r="N60" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="F61" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="G61" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="H61" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="I61" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M61" s="4"/>
+      <c r="N61" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>448</v>
       </c>
@@ -4467,59 +4717,67 @@
         <v>447</v>
       </c>
       <c r="C62" s="15"/>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="F62" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="G62" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="H62" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="I62" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M62" s="4"/>
+      <c r="N62" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="F63" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="G63" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="H63" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="I63" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M63" s="4"/>
+      <c r="N63" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>448</v>
       </c>
@@ -4527,30 +4785,34 @@
         <v>447</v>
       </c>
       <c r="C64" s="15"/>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G64" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="H64" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="I64" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M64" s="4"/>
+      <c r="N64" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>448</v>
       </c>
@@ -4558,30 +4820,34 @@
         <v>447</v>
       </c>
       <c r="C65" s="15"/>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G65" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="H65" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="I65" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M65" s="4"/>
+      <c r="N65" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>448</v>
       </c>
@@ -4591,30 +4857,34 @@
       <c r="C66" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>keep</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G66" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="H66" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="I66" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M66" s="4"/>
+      <c r="N66" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>448</v>
       </c>
@@ -4624,65 +4894,73 @@
       <c r="C67" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="23" t="str">
+        <f t="shared" ref="D67:D130" si="1">A67</f>
+        <v>keep</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G67" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="H67" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="I67" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="M67" s="4"/>
+      <c r="N67" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>445</v>
       </c>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>remove</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>77</v>
+      <c r="F68" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>77</v>
       </c>
       <c r="H68" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I68" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="I68" s="4" t="s">
+      <c r="J68" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="J68" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="K68" s="4"/>
-      <c r="L68" s="7" t="s">
+      <c r="K68" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="L68" s="4"/>
+      <c r="M68" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="M68" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="N68" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>448</v>
       </c>
@@ -4690,30 +4968,34 @@
       <c r="C69" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>238</v>
+      <c r="F69" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>238</v>
       </c>
       <c r="H69" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="I69" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M69" s="4"/>
+      <c r="N69" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>448</v>
       </c>
@@ -4721,30 +5003,34 @@
       <c r="C70" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>79</v>
+      <c r="F70" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>79</v>
       </c>
       <c r="H70" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I70" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M70" s="4"/>
+      <c r="N70" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>448</v>
       </c>
@@ -4752,30 +5038,34 @@
       <c r="C71" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G71" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="H71" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="I71" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M71" s="4"/>
+      <c r="N71" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>448</v>
       </c>
@@ -4783,30 +5073,34 @@
       <c r="C72" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G72" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="H72" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H72" s="5" t="s">
+      <c r="I72" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M72" s="4"/>
+      <c r="N72" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>448</v>
       </c>
@@ -4816,30 +5110,34 @@
       <c r="C73" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E73" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G73" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="H73" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="I73" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M73" s="4"/>
+      <c r="N73" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>448</v>
       </c>
@@ -4847,30 +5145,34 @@
       <c r="C74" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E74" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G74" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G74" s="5" t="s">
+      <c r="H74" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H74" s="5" t="s">
+      <c r="I74" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="M74" s="4"/>
+      <c r="N74" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>448</v>
       </c>
@@ -4878,30 +5180,34 @@
       <c r="C75" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="E75" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G75" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="H75" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="I75" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="M75" s="4"/>
+      <c r="N75" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>448</v>
       </c>
@@ -4911,30 +5217,34 @@
       <c r="C76" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="E76" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G76" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="H76" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="I76" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="M76" s="4"/>
+      <c r="N76" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>448</v>
       </c>
@@ -4944,30 +5254,34 @@
       <c r="C77" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="E77" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F77" s="5" t="s">
+      <c r="F77" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G77" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="H77" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H77" s="5" t="s">
+      <c r="I77" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M77" s="4"/>
+      <c r="N77" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>448</v>
       </c>
@@ -4975,30 +5289,34 @@
       <c r="C78" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E78" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G78" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="H78" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H78" s="5" t="s">
+      <c r="I78" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M78" s="4"/>
+      <c r="N78" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>448</v>
       </c>
@@ -5006,30 +5324,34 @@
       <c r="C79" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E79" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F79" s="5" t="s">
+      <c r="F79" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G79" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G79" s="5" t="s">
+      <c r="H79" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H79" s="5" t="s">
+      <c r="I79" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
-      <c r="M79" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M79" s="4"/>
+      <c r="N79" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>448</v>
       </c>
@@ -5037,59 +5359,67 @@
       <c r="C80" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F80" s="5" t="s">
+      <c r="F80" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G80" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="H80" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="I80" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
-      <c r="M80" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M80" s="4"/>
+      <c r="N80" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E81" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F81" s="5" t="s">
+      <c r="F81" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G81" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="H81" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="H81" s="5" t="s">
+      <c r="I81" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M81" s="4"/>
+      <c r="N81" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>448</v>
       </c>
@@ -5097,30 +5427,34 @@
       <c r="C82" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="F82" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="G82" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="H82" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="H82" s="5" t="s">
+      <c r="I82" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M82" s="4"/>
+      <c r="N82" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>448</v>
       </c>
@@ -5128,146 +5462,166 @@
         <v>447</v>
       </c>
       <c r="C83" s="15"/>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E83" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E83" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F83" s="5" t="s">
+      <c r="F83" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G83" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="H83" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="H83" s="5" t="s">
+      <c r="I83" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M83" s="4"/>
+      <c r="N83" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E84" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G84" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="H84" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="H84" s="5" t="s">
+      <c r="I84" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
-      <c r="M84" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M84" s="4"/>
+      <c r="N84" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E85" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G85" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G85" s="5" t="s">
+      <c r="H85" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="H85" s="5" t="s">
+      <c r="I85" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M85" s="4"/>
+      <c r="N85" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E86" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F86" s="5" t="s">
+      <c r="F86" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G86" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G86" s="5" t="s">
+      <c r="H86" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="H86" s="5" t="s">
+      <c r="I86" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M86" s="4"/>
+      <c r="N86" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E87" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E87" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F87" s="5" t="s">
+      <c r="F87" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G87" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G87" s="5" t="s">
+      <c r="H87" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="H87" s="5" t="s">
+      <c r="I87" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
-      <c r="M87" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M87" s="4"/>
+      <c r="N87" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>448</v>
       </c>
@@ -5275,59 +5629,67 @@
       <c r="C88" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="E88" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F88" s="5" t="s">
+      <c r="F88" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G88" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G88" s="5" t="s">
+      <c r="H88" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="H88" s="5" t="s">
+      <c r="I88" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M88" s="4"/>
+      <c r="N88" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E89" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F89" s="5" t="s">
+      <c r="F89" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G89" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G89" s="5" t="s">
+      <c r="H89" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="H89" s="5" t="s">
+      <c r="I89" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M89" s="4"/>
+      <c r="N89" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>448</v>
       </c>
@@ -5335,30 +5697,34 @@
       <c r="C90" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="E90" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F90" s="5" t="s">
+      <c r="F90" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G90" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G90" s="5" t="s">
+      <c r="H90" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="H90" s="5" t="s">
+      <c r="I90" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
-      <c r="M90" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M90" s="4"/>
+      <c r="N90" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>448</v>
       </c>
@@ -5366,30 +5732,34 @@
       <c r="C91" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E91" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F91" s="5" t="s">
+      <c r="F91" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G91" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G91" s="5" t="s">
+      <c r="H91" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="H91" s="5" t="s">
+      <c r="I91" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M91" s="4"/>
+      <c r="N91" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>448</v>
       </c>
@@ -5397,30 +5767,34 @@
       <c r="C92" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E92" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E92" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F92" s="5" t="s">
+      <c r="F92" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G92" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G92" s="5" t="s">
+      <c r="H92" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="H92" s="5" t="s">
+      <c r="I92" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M92" s="4"/>
+      <c r="N92" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>448</v>
       </c>
@@ -5428,30 +5802,34 @@
       <c r="C93" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E93" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F93" s="5" t="s">
+      <c r="F93" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G93" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G93" s="5" t="s">
+      <c r="H93" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="H93" s="5" t="s">
+      <c r="I93" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M93" s="4"/>
+      <c r="N93" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>448</v>
       </c>
@@ -5459,30 +5837,34 @@
       <c r="C94" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E94" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E94" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G94" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G94" s="5" t="s">
+      <c r="H94" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="H94" s="5" t="s">
+      <c r="I94" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
-      <c r="M94" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M94" s="4"/>
+      <c r="N94" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>448</v>
       </c>
@@ -5492,30 +5874,34 @@
       <c r="C95" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E95" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G95" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G95" s="5" t="s">
+      <c r="H95" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="H95" s="5" t="s">
+      <c r="I95" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="M95" s="4"/>
+      <c r="N95" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>448</v>
       </c>
@@ -5523,30 +5909,34 @@
       <c r="C96" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E96" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E96" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F96" s="5" t="s">
+      <c r="F96" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G96" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="H96" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="H96" s="5" t="s">
+      <c r="I96" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M96" s="4"/>
+      <c r="N96" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>448</v>
       </c>
@@ -5554,30 +5944,34 @@
       <c r="C97" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E97" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E97" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F97" s="5" t="s">
+      <c r="F97" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G97" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G97" s="5" t="s">
+      <c r="H97" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="H97" s="5" t="s">
+      <c r="I97" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
-      <c r="M97" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M97" s="4"/>
+      <c r="N97" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>448</v>
       </c>
@@ -5585,30 +5979,34 @@
       <c r="C98" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E98" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E98" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F98" s="5" t="s">
+      <c r="F98" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G98" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="H98" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="H98" s="5" t="s">
+      <c r="I98" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
-      <c r="M98" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M98" s="4"/>
+      <c r="N98" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>448</v>
       </c>
@@ -5616,30 +6014,34 @@
       <c r="C99" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E99" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F99" s="5" t="s">
+      <c r="F99" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G99" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G99" s="5" t="s">
+      <c r="H99" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="H99" s="5" t="s">
+      <c r="I99" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M99" s="4"/>
+      <c r="N99" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>448</v>
       </c>
@@ -5647,30 +6049,34 @@
       <c r="C100" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E100" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E100" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F100" s="5" t="s">
+      <c r="F100" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G100" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G100" s="5" t="s">
+      <c r="H100" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="H100" s="5" t="s">
+      <c r="I100" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="I100" s="4"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M100" s="4"/>
+      <c r="N100" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>448</v>
       </c>
@@ -5678,30 +6084,34 @@
       <c r="C101" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E101" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E101" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F101" s="5" t="s">
+      <c r="F101" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G101" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="G101" s="5" t="s">
+      <c r="H101" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="H101" s="5" t="s">
+      <c r="I101" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I101" s="4"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
-      <c r="M101" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M101" s="4"/>
+      <c r="N101" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>448</v>
       </c>
@@ -5709,30 +6119,34 @@
       <c r="C102" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E102" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F102" s="5" t="s">
+      <c r="F102" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G102" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="G102" s="5" t="s">
+      <c r="H102" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="H102" s="5" t="s">
+      <c r="I102" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I102" s="4"/>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M102" s="4"/>
+      <c r="N102" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="23" t="s">
         <v>448</v>
       </c>
@@ -5740,30 +6154,34 @@
       <c r="C103" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E103" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="E103" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F103" s="2" t="s">
+      <c r="F103" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="H103" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="H103" s="2" t="s">
+      <c r="I103" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="M103" s="4"/>
+      <c r="N103" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" s="1" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="23" t="s">
         <v>448</v>
       </c>
@@ -5771,30 +6189,34 @@
       <c r="C104" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E104" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E104" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F104" s="2" t="s">
+      <c r="F104" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="H104" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="H104" s="2" t="s">
+      <c r="I104" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
-      <c r="M104" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M104" s="4"/>
+      <c r="N104" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>448</v>
       </c>
@@ -5802,30 +6224,34 @@
         <v>447</v>
       </c>
       <c r="C105" s="15"/>
-      <c r="D105" s="4" t="s">
+      <c r="D105" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E105" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="E105" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F105" s="5" t="s">
+      <c r="F105" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G105" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="G105" s="5" t="s">
+      <c r="H105" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="H105" s="5" t="s">
+      <c r="I105" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="I105" s="4"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M105" s="4"/>
+      <c r="N105" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>448</v>
       </c>
@@ -5833,30 +6259,34 @@
         <v>447</v>
       </c>
       <c r="C106" s="15"/>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E106" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="E106" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F106" s="5" t="s">
+      <c r="F106" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G106" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="G106" s="5" t="s">
+      <c r="H106" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="H106" s="5" t="s">
+      <c r="I106" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="I106" s="4"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="M106" s="4"/>
+      <c r="N106" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" s="1" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>448</v>
       </c>
@@ -5866,30 +6296,34 @@
       <c r="C107" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E107" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E107" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F107" s="5" t="s">
+      <c r="F107" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G107" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="G107" s="5" t="s">
+      <c r="H107" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="H107" s="5" t="s">
+      <c r="I107" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I107" s="4"/>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="M107" s="4"/>
+      <c r="N107" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>448</v>
       </c>
@@ -5899,30 +6333,34 @@
       <c r="C108" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E108" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E108" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F108" s="5" t="s">
+      <c r="F108" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G108" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="G108" s="5" t="s">
+      <c r="H108" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="H108" s="5" t="s">
+      <c r="I108" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I108" s="4"/>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
-      <c r="M108" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="M108" s="4"/>
+      <c r="N108" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>448</v>
       </c>
@@ -5930,1707 +6368,1939 @@
       <c r="C109" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E109" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E109" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F109" s="5" t="s">
+      <c r="F109" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G109" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="G109" s="5" t="s">
+      <c r="H109" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="H109" s="5" t="s">
+      <c r="I109" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M109" s="4"/>
+      <c r="N109" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B110" s="19"/>
       <c r="C110" s="19"/>
-      <c r="D110" s="11" t="s">
+      <c r="D110" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E110" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E110" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F110" s="7" t="s">
+      <c r="F110" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G110" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="G110" s="7" t="s">
+      <c r="H110" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="H110" s="7" t="s">
+      <c r="I110" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="I110" s="11"/>
       <c r="J110" s="11"/>
       <c r="K110" s="11"/>
       <c r="L110" s="11"/>
-      <c r="M110" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M110" s="11"/>
+      <c r="N110" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B111" s="19"/>
       <c r="C111" s="19"/>
-      <c r="D111" s="4" t="s">
+      <c r="D111" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E111" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="E111" s="4" t="s">
+      <c r="F111" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="G111" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="G111" s="7" t="s">
+      <c r="H111" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="H111" s="7" t="s">
+      <c r="I111" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="I111" s="11"/>
       <c r="J111" s="11"/>
       <c r="K111" s="11"/>
       <c r="L111" s="11"/>
-      <c r="M111" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M111" s="11"/>
+      <c r="N111" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B112" s="19"/>
       <c r="C112" s="19"/>
-      <c r="D112" s="4" t="s">
+      <c r="D112" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E112" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E112" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F112" s="7" t="s">
+      <c r="F112" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G112" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="G112" s="7" t="s">
+      <c r="H112" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H112" s="7" t="s">
+      <c r="I112" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="I112" s="11"/>
       <c r="J112" s="11"/>
       <c r="K112" s="11"/>
       <c r="L112" s="11"/>
-      <c r="M112" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M112" s="11"/>
+      <c r="N112" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B113" s="19"/>
       <c r="C113" s="19"/>
-      <c r="D113" s="11" t="s">
+      <c r="D113" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E113" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E113" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F113" s="7" t="s">
+      <c r="F113" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G113" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="G113" s="7" t="s">
+      <c r="H113" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H113" s="7" t="s">
+      <c r="I113" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="I113" s="11"/>
       <c r="J113" s="11"/>
       <c r="K113" s="11"/>
       <c r="L113" s="11"/>
-      <c r="M113" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M113" s="11"/>
+      <c r="N113" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B114" s="19"/>
       <c r="C114" s="19"/>
-      <c r="D114" s="11" t="s">
+      <c r="D114" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E114" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E114" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F114" s="7" t="s">
+      <c r="F114" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G114" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="G114" s="7" t="s">
+      <c r="H114" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H114" s="7" t="s">
+      <c r="I114" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="I114" s="11"/>
       <c r="J114" s="11"/>
       <c r="K114" s="11"/>
       <c r="L114" s="11"/>
-      <c r="M114" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M114" s="11"/>
+      <c r="N114" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B115" s="19"/>
       <c r="C115" s="19"/>
-      <c r="D115" s="4" t="s">
+      <c r="D115" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E115" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E115" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F115" s="7" t="s">
+      <c r="F115" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G115" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="G115" s="7" t="s">
+      <c r="H115" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H115" s="7" t="s">
+      <c r="I115" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="I115" s="11"/>
       <c r="J115" s="11"/>
       <c r="K115" s="11"/>
       <c r="L115" s="11"/>
-      <c r="M115" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M115" s="11"/>
+      <c r="N115" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B116" s="19"/>
       <c r="C116" s="19"/>
-      <c r="D116" s="4" t="s">
+      <c r="D116" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E116" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E116" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F116" s="7" t="s">
+      <c r="F116" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G116" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="G116" s="7" t="s">
+      <c r="H116" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H116" s="7" t="s">
+      <c r="I116" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="I116" s="11"/>
       <c r="J116" s="11"/>
       <c r="K116" s="11"/>
       <c r="L116" s="11"/>
-      <c r="M116" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M116" s="11"/>
+      <c r="N116" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B117" s="19"/>
       <c r="C117" s="19"/>
-      <c r="D117" s="4" t="s">
+      <c r="D117" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E117" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E117" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F117" s="7" t="s">
+      <c r="F117" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G117" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="G117" s="7" t="s">
+      <c r="H117" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H117" s="7" t="s">
+      <c r="I117" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="I117" s="11"/>
       <c r="J117" s="11"/>
       <c r="K117" s="11"/>
       <c r="L117" s="11"/>
-      <c r="M117" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M117" s="11"/>
+      <c r="N117" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B118" s="19"/>
       <c r="C118" s="19"/>
-      <c r="D118" s="11" t="s">
+      <c r="D118" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E118" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E118" s="23" t="s">
+      <c r="F118" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="G118" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G118" s="7" t="s">
+      <c r="H118" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="H118" s="7" t="s">
+      <c r="I118" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="I118" s="11"/>
       <c r="J118" s="11"/>
       <c r="K118" s="11"/>
       <c r="L118" s="11"/>
-      <c r="M118" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M118" s="11"/>
+      <c r="N118" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B119" s="19"/>
       <c r="C119" s="19"/>
-      <c r="D119" s="4" t="s">
+      <c r="D119" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E119" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E119" s="4" t="s">
+      <c r="F119" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="G119" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G119" s="7" t="s">
+      <c r="H119" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="H119" s="7" t="s">
+      <c r="I119" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="I119" s="11"/>
       <c r="J119" s="11"/>
       <c r="K119" s="11"/>
       <c r="L119" s="11"/>
-      <c r="M119" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M119" s="11"/>
+      <c r="N119" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
-      <c r="D120" s="11" t="s">
+      <c r="D120" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E120" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="F120" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F120" s="7" t="s">
+      <c r="G120" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G120" s="7" t="s">
+      <c r="H120" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H120" s="7" t="s">
+      <c r="I120" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="I120" s="11"/>
       <c r="J120" s="11"/>
       <c r="K120" s="11"/>
       <c r="L120" s="11"/>
-      <c r="M120" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M120" s="11"/>
+      <c r="N120" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B121" s="19"/>
       <c r="C121" s="19"/>
-      <c r="D121" s="11" t="s">
+      <c r="D121" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E121" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="E121" s="4" t="s">
+      <c r="F121" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F121" s="7" t="s">
+      <c r="G121" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="G121" s="7" t="s">
+      <c r="H121" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H121" s="7" t="s">
+      <c r="I121" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="I121" s="11"/>
       <c r="J121" s="11"/>
       <c r="K121" s="11"/>
       <c r="L121" s="11"/>
-      <c r="M121" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M121" s="11"/>
+      <c r="N121" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B122" s="19"/>
       <c r="C122" s="19"/>
-      <c r="D122" s="11" t="s">
+      <c r="D122" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E122" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="E122" s="4" t="s">
+      <c r="F122" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F122" s="7" t="s">
+      <c r="G122" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G122" s="7" t="s">
+      <c r="H122" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H122" s="7" t="s">
+      <c r="I122" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="I122" s="11"/>
       <c r="J122" s="11"/>
       <c r="K122" s="11"/>
       <c r="L122" s="11"/>
-      <c r="M122" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M122" s="11"/>
+      <c r="N122" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
-      <c r="D123" s="11" t="s">
+      <c r="D123" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E123" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="E123" s="4" t="s">
+      <c r="F123" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F123" s="7" t="s">
+      <c r="G123" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G123" s="7" t="s">
+      <c r="H123" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H123" s="7" t="s">
+      <c r="I123" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="I123" s="11"/>
       <c r="J123" s="11"/>
       <c r="K123" s="11"/>
       <c r="L123" s="11"/>
-      <c r="M123" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M123" s="11"/>
+      <c r="N123" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
-      <c r="D124" s="11" t="s">
+      <c r="D124" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E124" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="E124" s="4" t="s">
+      <c r="F124" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F124" s="7" t="s">
+      <c r="G124" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G124" s="7" t="s">
+      <c r="H124" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H124" s="7" t="s">
+      <c r="I124" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="I124" s="11"/>
       <c r="J124" s="11"/>
       <c r="K124" s="11"/>
       <c r="L124" s="11"/>
-      <c r="M124" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M124" s="11"/>
+      <c r="N124" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
-      <c r="D125" s="11" t="s">
+      <c r="D125" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E125" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="E125" s="4" t="s">
+      <c r="F125" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="G125" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G125" s="7" t="s">
+      <c r="H125" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H125" s="7" t="s">
+      <c r="I125" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="I125" s="11"/>
       <c r="J125" s="11"/>
       <c r="K125" s="11"/>
       <c r="L125" s="11"/>
-      <c r="M125" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M125" s="11"/>
+      <c r="N125" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
-      <c r="D126" s="11" t="s">
+      <c r="D126" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E126" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E126" s="4" t="s">
+      <c r="F126" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F126" s="7" t="s">
+      <c r="G126" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="G126" s="7" t="s">
+      <c r="H126" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="H126" s="7" t="s">
+      <c r="I126" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="I126" s="11"/>
       <c r="J126" s="11"/>
       <c r="K126" s="11"/>
       <c r="L126" s="11"/>
-      <c r="M126" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M126" s="11"/>
+      <c r="N126" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B127" s="19"/>
       <c r="C127" s="19"/>
-      <c r="D127" s="11" t="s">
+      <c r="D127" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E127" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="F127" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F127" s="7" t="s">
+      <c r="G127" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="G127" s="7" t="s">
+      <c r="H127" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="H127" s="7" t="s">
+      <c r="I127" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="I127" s="11"/>
       <c r="J127" s="11"/>
       <c r="K127" s="11"/>
       <c r="L127" s="11"/>
-      <c r="M127" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M127" s="11"/>
+      <c r="N127" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B128" s="19"/>
       <c r="C128" s="19"/>
-      <c r="D128" s="11" t="s">
+      <c r="D128" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E128" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="E128" s="4" t="s">
+      <c r="F128" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F128" s="7" t="s">
+      <c r="G128" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="G128" s="7" t="s">
+      <c r="H128" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H128" s="7" t="s">
+      <c r="I128" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="I128" s="11"/>
       <c r="J128" s="11"/>
       <c r="K128" s="11"/>
       <c r="L128" s="11"/>
-      <c r="M128" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M128" s="11"/>
+      <c r="N128" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B129" s="19"/>
       <c r="C129" s="19"/>
-      <c r="D129" s="11" t="s">
+      <c r="D129" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E129" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="E129" s="4" t="s">
+      <c r="F129" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F129" s="7" t="s">
+      <c r="G129" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="G129" s="7" t="s">
+      <c r="H129" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H129" s="7" t="s">
+      <c r="I129" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="I129" s="11"/>
       <c r="J129" s="11"/>
       <c r="K129" s="11"/>
       <c r="L129" s="11"/>
-      <c r="M129" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M129" s="11"/>
+      <c r="N129" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B130" s="19"/>
       <c r="C130" s="19"/>
-      <c r="D130" s="11" t="s">
+      <c r="D130" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>keep</v>
+      </c>
+      <c r="E130" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="E130" s="4" t="s">
+      <c r="F130" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F130" s="7" t="s">
+      <c r="G130" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="G130" s="7" t="s">
+      <c r="H130" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H130" s="7" t="s">
+      <c r="I130" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="I130" s="11"/>
       <c r="J130" s="11"/>
       <c r="K130" s="11"/>
       <c r="L130" s="11"/>
-      <c r="M130" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M130" s="11"/>
+      <c r="N130" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B131" s="19"/>
       <c r="C131" s="19"/>
-      <c r="D131" s="11" t="s">
+      <c r="D131" s="23" t="str">
+        <f t="shared" ref="D131:D194" si="2">A131</f>
+        <v>keep</v>
+      </c>
+      <c r="E131" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="E131" s="4" t="s">
+      <c r="F131" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F131" s="14" t="s">
+      <c r="G131" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="G131" s="14" t="s">
+      <c r="H131" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="H131" s="14" t="s">
+      <c r="I131" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="I131" s="11"/>
       <c r="J131" s="11"/>
       <c r="K131" s="11"/>
       <c r="L131" s="11"/>
       <c r="M131" s="11"/>
-    </row>
-    <row r="132" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="N131" s="11"/>
+    </row>
+    <row r="132" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B132" s="19"/>
       <c r="C132" s="19"/>
-      <c r="D132" s="11" t="s">
+      <c r="D132" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E132" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="E132" s="4" t="s">
+      <c r="F132" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F132" s="7" t="s">
+      <c r="G132" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="G132" s="7" t="s">
+      <c r="H132" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H132" s="7" t="s">
+      <c r="I132" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="I132" s="11"/>
       <c r="J132" s="11"/>
       <c r="K132" s="11"/>
       <c r="L132" s="11"/>
-      <c r="M132" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M132" s="11"/>
+      <c r="N132" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B133" s="19"/>
       <c r="C133" s="19"/>
-      <c r="D133" s="11" t="s">
+      <c r="D133" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E133" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="E133" s="4" t="s">
+      <c r="F133" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F133" s="7" t="s">
+      <c r="G133" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="G133" s="7" t="s">
+      <c r="H133" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H133" s="7" t="s">
+      <c r="I133" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="I133" s="11"/>
       <c r="J133" s="11"/>
       <c r="K133" s="11"/>
       <c r="L133" s="11"/>
-      <c r="M133" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+      <c r="M133" s="11"/>
+      <c r="N133" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" s="1" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B134" s="15"/>
       <c r="C134" s="15"/>
-      <c r="D134" s="4" t="s">
+      <c r="D134" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E134" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E134" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F134" s="5" t="s">
+      <c r="F134" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G134" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="G134" s="5" t="s">
+      <c r="H134" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="H134" s="5" t="s">
+      <c r="I134" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="M134" s="4"/>
+      <c r="N134" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B135" s="15"/>
       <c r="C135" s="15"/>
-      <c r="D135" s="4" t="s">
+      <c r="D135" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E135" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E135" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F135" s="5" t="s">
+      <c r="F135" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G135" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="G135" s="5" t="s">
+      <c r="H135" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="H135" s="5" t="s">
+      <c r="I135" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
-      <c r="M135" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="M135" s="4"/>
+      <c r="N135" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B136" s="15"/>
       <c r="C136" s="15"/>
-      <c r="D136" s="8" t="s">
+      <c r="D136" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E136" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E136" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F136" s="5" t="s">
+      <c r="F136" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G136" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="G136" s="5" t="s">
+      <c r="H136" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="H136" s="6" t="s">
+      <c r="I136" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="I136" s="4"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
-      <c r="M136" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="M136" s="4"/>
+      <c r="N136" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B137" s="15"/>
       <c r="C137" s="15"/>
-      <c r="D137" s="8" t="s">
+      <c r="D137" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E137" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E137" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F137" s="5" t="s">
+      <c r="F137" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G137" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="G137" s="5" t="s">
+      <c r="H137" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="H137" s="6" t="s">
+      <c r="I137" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="I137" s="4"/>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="M137" s="4"/>
+      <c r="N137" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B138" s="15"/>
       <c r="C138" s="15"/>
-      <c r="D138" s="4" t="s">
+      <c r="D138" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E138" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E138" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F138" s="5" t="s">
+      <c r="F138" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G138" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="G138" s="5" t="s">
+      <c r="H138" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="H138" s="5" t="s">
+      <c r="I138" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="I138" s="4"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
-      <c r="M138" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="M138" s="4"/>
+      <c r="N138" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B139" s="15"/>
       <c r="C139" s="15"/>
-      <c r="D139" s="4" t="s">
+      <c r="D139" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E139" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E139" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F139" s="5" t="s">
+      <c r="F139" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G139" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="G139" s="5" t="s">
+      <c r="H139" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="H139" s="5" t="s">
+      <c r="I139" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="I139" s="4"/>
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="M139" s="4"/>
+      <c r="N139" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>445</v>
       </c>
       <c r="B140" s="15"/>
       <c r="C140" s="15"/>
-      <c r="D140" s="4" t="s">
+      <c r="D140" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>remove</v>
+      </c>
+      <c r="E140" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E140" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F140" s="5" t="s">
+      <c r="F140" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G140" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="G140" s="5" t="s">
+      <c r="H140" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="H140" s="5" t="s">
+      <c r="I140" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="I140" s="4" t="s">
+      <c r="J140" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="J140" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="K140" s="4"/>
-      <c r="L140" s="5" t="s">
+      <c r="K140" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="L140" s="4"/>
+      <c r="M140" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="M140" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="N140" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="23" t="s">
         <v>448</v>
       </c>
       <c r="B141" s="15"/>
       <c r="C141" s="15"/>
-      <c r="D141" s="4" t="s">
+      <c r="D141" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E141" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E141" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F141" s="5" t="s">
+      <c r="F141" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G141" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="G141" s="5" t="s">
+      <c r="H141" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="H141" s="5" t="s">
+      <c r="I141" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="M141" s="4"/>
+      <c r="N141" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="23" t="s">
         <v>448</v>
       </c>
       <c r="B142" s="15"/>
       <c r="C142" s="15"/>
-      <c r="D142" s="4" t="s">
+      <c r="D142" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E142" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="E142" s="4" t="s">
+      <c r="F142" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F142" s="5" t="s">
+      <c r="G142" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="G142" s="5" t="s">
+      <c r="H142" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="H142" s="5" t="s">
+      <c r="I142" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="I142" s="4"/>
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
-      <c r="M142" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M142" s="4"/>
+      <c r="N142" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B143" s="15"/>
       <c r="C143" s="15"/>
-      <c r="D143" s="4" t="s">
+      <c r="D143" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E143" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E143" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F143" s="5" t="s">
+      <c r="F143" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G143" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G143" s="5" t="s">
+      <c r="H143" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="H143" s="5" t="s">
+      <c r="I143" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="I143" s="4"/>
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
-      <c r="M143" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="M143" s="4"/>
+      <c r="N143" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B144" s="15"/>
       <c r="C144" s="15"/>
-      <c r="D144" s="4" t="s">
+      <c r="D144" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E144" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E144" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F144" s="5" t="s">
+      <c r="F144" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G144" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G144" s="5" t="s">
+      <c r="H144" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="H144" s="5" t="s">
+      <c r="I144" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="I144" s="4"/>
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
       <c r="L144" s="4"/>
-      <c r="M144" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="M144" s="4"/>
+      <c r="N144" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B145" s="15"/>
       <c r="C145" s="15"/>
-      <c r="D145" s="4" t="s">
+      <c r="D145" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E145" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E145" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F145" s="5" t="s">
+      <c r="F145" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G145" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G145" s="5" t="s">
+      <c r="H145" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="H145" s="5" t="s">
+      <c r="I145" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I145" s="4"/>
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
       <c r="L145" s="4"/>
-      <c r="M145" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="M145" s="4"/>
+      <c r="N145" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B146" s="15"/>
       <c r="C146" s="15"/>
-      <c r="D146" s="4" t="s">
+      <c r="D146" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E146" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E146" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F146" s="5" t="s">
+      <c r="F146" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G146" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G146" s="5" t="s">
+      <c r="H146" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="H146" s="5" t="s">
+      <c r="I146" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="I146" s="4"/>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M146" s="4"/>
+      <c r="N146" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B147" s="19"/>
       <c r="C147" s="19"/>
-      <c r="D147" s="4" t="s">
+      <c r="D147" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E147" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E147" s="4" t="s">
+      <c r="F147" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F147" s="5" t="s">
+      <c r="G147" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G147" s="5" t="s">
+      <c r="H147" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="H147" s="5" t="s">
+      <c r="I147" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="I147" s="11"/>
       <c r="J147" s="11"/>
       <c r="K147" s="11"/>
       <c r="L147" s="11"/>
-      <c r="M147" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="M147" s="11"/>
+      <c r="N147" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B148" s="19"/>
       <c r="C148" s="19"/>
-      <c r="D148" s="4" t="s">
+      <c r="D148" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E148" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E148" s="4" t="s">
+      <c r="F148" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F148" s="5" t="s">
+      <c r="G148" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G148" s="5" t="s">
+      <c r="H148" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="H148" s="5" t="s">
+      <c r="I148" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="I148" s="11"/>
       <c r="J148" s="11"/>
       <c r="K148" s="11"/>
       <c r="L148" s="11"/>
-      <c r="M148" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" ht="72" x14ac:dyDescent="0.2">
+      <c r="M148" s="11"/>
+      <c r="N148" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="72" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B149" s="19"/>
       <c r="C149" s="19"/>
-      <c r="D149" s="5" t="s">
+      <c r="D149" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E149" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="E149" s="4" t="s">
+      <c r="F149" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F149" s="5" t="s">
+      <c r="G149" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G149" s="5" t="s">
+      <c r="H149" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H149" s="5" t="s">
+      <c r="I149" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="I149" s="11"/>
       <c r="J149" s="11"/>
       <c r="K149" s="11"/>
       <c r="L149" s="11"/>
-      <c r="M149" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+      <c r="M149" s="11"/>
+      <c r="N149" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" ht="84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="23" t="s">
         <v>448</v>
       </c>
       <c r="B150" s="19"/>
       <c r="C150" s="19"/>
-      <c r="D150" s="4" t="s">
+      <c r="D150" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E150" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E150" s="4" t="s">
+      <c r="F150" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F150" s="5" t="s">
+      <c r="G150" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="G150" s="5" t="s">
+      <c r="H150" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="H150" s="5" t="s">
+      <c r="I150" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="I150" s="11"/>
       <c r="J150" s="11"/>
       <c r="K150" s="11"/>
       <c r="L150" s="11"/>
-      <c r="M150" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M150" s="11"/>
+      <c r="N150" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="23" t="s">
         <v>448</v>
       </c>
       <c r="B151" s="19"/>
       <c r="C151" s="19"/>
-      <c r="D151" s="4" t="s">
+      <c r="D151" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E151" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E151" s="4" t="s">
+      <c r="F151" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F151" s="5" t="s">
+      <c r="G151" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="G151" s="5" t="s">
+      <c r="H151" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H151" s="5" t="s">
+      <c r="I151" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="I151" s="11"/>
       <c r="J151" s="11"/>
       <c r="K151" s="11"/>
       <c r="L151" s="11"/>
-      <c r="M151" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M151" s="11"/>
+      <c r="N151" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="23" t="s">
         <v>448</v>
       </c>
       <c r="B152" s="19"/>
       <c r="C152" s="19"/>
-      <c r="D152" s="4" t="s">
+      <c r="D152" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E152" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E152" s="4" t="s">
+      <c r="F152" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F152" s="5" t="s">
+      <c r="G152" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="G152" s="5" t="s">
+      <c r="H152" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="H152" s="5" t="s">
+      <c r="I152" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="I152" s="11"/>
       <c r="J152" s="11"/>
       <c r="K152" s="11"/>
       <c r="L152" s="11"/>
-      <c r="M152" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M152" s="11"/>
+      <c r="N152" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="23" t="s">
         <v>448</v>
       </c>
       <c r="B153" s="19"/>
       <c r="C153" s="19"/>
-      <c r="D153" s="4" t="s">
+      <c r="D153" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E153" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E153" s="4" t="s">
+      <c r="F153" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F153" s="5" t="s">
+      <c r="G153" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="G153" s="5" t="s">
+      <c r="H153" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="H153" s="5" t="s">
+      <c r="I153" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="I153" s="11"/>
       <c r="J153" s="11"/>
       <c r="K153" s="11"/>
       <c r="L153" s="11"/>
-      <c r="M153" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+      <c r="M153" s="11"/>
+      <c r="N153" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" ht="84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B154" s="19"/>
       <c r="C154" s="19"/>
-      <c r="D154" s="4" t="s">
+      <c r="D154" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E154" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E154" s="4" t="s">
+      <c r="F154" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F154" s="5" t="s">
+      <c r="G154" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="G154" s="5" t="s">
+      <c r="H154" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="H154" s="5" t="s">
+      <c r="I154" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="I154" s="11"/>
       <c r="J154" s="11"/>
       <c r="K154" s="11"/>
       <c r="L154" s="11"/>
-      <c r="M154" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+      <c r="M154" s="11"/>
+      <c r="N154" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="108" x14ac:dyDescent="0.2">
       <c r="A155" s="11" t="s">
         <v>445</v>
       </c>
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
-      <c r="D155" s="4" t="s">
+      <c r="D155" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>remove</v>
+      </c>
+      <c r="E155" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E155" s="4" t="s">
+      <c r="F155" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F155" s="5" t="s">
+      <c r="G155" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="G155" s="5" t="s">
+      <c r="H155" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="H155" s="5" t="s">
+      <c r="I155" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="I155" s="11" t="s">
+      <c r="J155" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="J155" s="4" t="s">
+      <c r="K155" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="L155" s="11"/>
+      <c r="M155" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="K155" s="11"/>
-      <c r="L155" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="M155" s="11" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" ht="108" x14ac:dyDescent="0.2">
+      <c r="N155" s="11" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" ht="108" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="s">
         <v>445</v>
       </c>
       <c r="B156" s="19"/>
       <c r="C156" s="19"/>
-      <c r="D156" s="4" t="s">
+      <c r="D156" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>remove</v>
+      </c>
+      <c r="E156" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E156" s="4" t="s">
+      <c r="F156" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F156" s="5" t="s">
+      <c r="G156" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="G156" s="5" t="s">
+      <c r="H156" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="H156" s="5" t="s">
+      <c r="I156" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="I156" s="11" t="s">
+      <c r="J156" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="J156" s="4" t="s">
+      <c r="K156" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="L156" s="11"/>
+      <c r="M156" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="K156" s="11"/>
-      <c r="L156" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="M156" s="11" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+      <c r="N156" s="11" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="108" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="s">
         <v>445</v>
       </c>
       <c r="B157" s="19"/>
       <c r="C157" s="19"/>
-      <c r="D157" s="4" t="s">
+      <c r="D157" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>remove</v>
+      </c>
+      <c r="E157" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E157" s="4" t="s">
+      <c r="F157" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F157" s="5" t="s">
+      <c r="G157" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="G157" s="5" t="s">
+      <c r="H157" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="H157" s="5" t="s">
+      <c r="I157" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="I157" s="11" t="s">
+      <c r="J157" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="J157" s="4" t="s">
+      <c r="K157" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="L157" s="11"/>
+      <c r="M157" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="K157" s="11"/>
-      <c r="L157" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="M157" s="11" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="N157" s="11" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="s">
         <v>448</v>
       </c>
       <c r="B158" s="19"/>
       <c r="C158" s="19"/>
-      <c r="D158" s="4" t="s">
+      <c r="D158" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E158" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E158" s="4" t="s">
+      <c r="F158" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F158" s="5" t="s">
+      <c r="G158" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="G158" s="5" t="s">
+      <c r="H158" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="H158" s="5" t="s">
+      <c r="I158" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="I158" s="11"/>
       <c r="J158" s="11"/>
       <c r="K158" s="11"/>
       <c r="L158" s="11"/>
-      <c r="M158" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M158" s="11"/>
+      <c r="N158" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="11" t="s">
         <v>448</v>
       </c>
       <c r="B159" s="19"/>
       <c r="C159" s="19"/>
-      <c r="D159" s="4" t="s">
+      <c r="D159" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E159" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E159" s="4" t="s">
+      <c r="F159" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F159" s="5" t="s">
+      <c r="G159" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="G159" s="5" t="s">
+      <c r="H159" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="H159" s="5" t="s">
+      <c r="I159" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="I159" s="11"/>
       <c r="J159" s="11"/>
       <c r="K159" s="11"/>
       <c r="L159" s="11"/>
-      <c r="M159" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M159" s="11"/>
+      <c r="N159" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="11" t="s">
         <v>448</v>
       </c>
       <c r="B160" s="19"/>
       <c r="C160" s="19"/>
-      <c r="D160" s="4" t="s">
+      <c r="D160" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E160" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E160" s="4" t="s">
+      <c r="F160" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F160" s="5" t="s">
+      <c r="G160" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G160" s="5" t="s">
+      <c r="H160" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="H160" s="5" t="s">
+      <c r="I160" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I160" s="11"/>
       <c r="J160" s="11"/>
       <c r="K160" s="11"/>
       <c r="L160" s="11"/>
-      <c r="M160" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" ht="60" x14ac:dyDescent="0.2">
+      <c r="M160" s="11"/>
+      <c r="N160" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="A161" s="11" t="s">
         <v>445</v>
       </c>
       <c r="B161" s="19"/>
       <c r="C161" s="19"/>
-      <c r="D161" s="4" t="s">
+      <c r="D161" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>remove</v>
+      </c>
+      <c r="E161" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E161" s="4" t="s">
+      <c r="F161" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F161" s="5" t="s">
+      <c r="G161" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G161" s="5"/>
-      <c r="H161" s="5" t="s">
+      <c r="H161" s="5"/>
+      <c r="I161" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="I161" s="4" t="s">
+      <c r="J161" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="J161" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="K161" s="11"/>
-      <c r="L161" s="7" t="s">
+      <c r="K161" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="L161" s="11"/>
+      <c r="M161" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="M161" s="11" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="N161" s="11" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="s">
         <v>448</v>
       </c>
       <c r="B162" s="19"/>
       <c r="C162" s="19"/>
-      <c r="D162" s="4" t="s">
+      <c r="D162" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E162" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E162" s="4" t="s">
+      <c r="F162" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F162" s="5" t="s">
+      <c r="G162" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="G162" s="5"/>
-      <c r="H162" s="5" t="s">
+      <c r="H162" s="5"/>
+      <c r="I162" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="I162" s="11"/>
       <c r="J162" s="11"/>
       <c r="K162" s="11"/>
       <c r="L162" s="11"/>
-      <c r="M162" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M162" s="11"/>
+      <c r="N162" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="11" t="s">
         <v>448</v>
       </c>
       <c r="B163" s="19"/>
       <c r="C163" s="19"/>
-      <c r="D163" s="4" t="s">
+      <c r="D163" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E163" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E163" s="4" t="s">
+      <c r="F163" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F163" s="5" t="s">
+      <c r="G163" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G163" s="5" t="s">
+      <c r="H163" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H163" s="5" t="s">
+      <c r="I163" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="I163" s="11"/>
       <c r="J163" s="11"/>
       <c r="K163" s="11"/>
       <c r="L163" s="11"/>
-      <c r="M163" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M163" s="11"/>
+      <c r="N163" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="11" t="s">
         <v>448</v>
       </c>
       <c r="B164" s="19"/>
       <c r="C164" s="19"/>
-      <c r="D164" s="4" t="s">
+      <c r="D164" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E164" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E164" s="4" t="s">
+      <c r="F164" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F164" s="5" t="s">
+      <c r="G164" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G164" s="5" t="s">
+      <c r="H164" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="H164" s="5" t="s">
+      <c r="I164" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="I164" s="11"/>
       <c r="J164" s="11"/>
       <c r="K164" s="11"/>
       <c r="L164" s="11"/>
-      <c r="M164" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M164" s="11"/>
+      <c r="N164" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="11" t="s">
         <v>448</v>
       </c>
       <c r="B165" s="19"/>
       <c r="C165" s="19"/>
-      <c r="D165" s="4" t="s">
+      <c r="D165" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E165" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E165" s="4" t="s">
+      <c r="F165" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F165" s="5" t="s">
+      <c r="G165" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G165" s="5" t="s">
+      <c r="H165" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="H165" s="5" t="s">
+      <c r="I165" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="I165" s="11"/>
       <c r="J165" s="11"/>
       <c r="K165" s="11"/>
       <c r="L165" s="11"/>
-      <c r="M165" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M165" s="11"/>
+      <c r="N165" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="11" t="s">
         <v>448</v>
       </c>
       <c r="B166" s="19"/>
       <c r="C166" s="19"/>
-      <c r="D166" s="4" t="s">
+      <c r="D166" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E166" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E166" s="4" t="s">
+      <c r="F166" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F166" s="5" t="s">
+      <c r="G166" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G166" s="5" t="s">
+      <c r="H166" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H166" s="5" t="s">
+      <c r="I166" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="I166" s="11"/>
       <c r="J166" s="11"/>
       <c r="K166" s="11"/>
       <c r="L166" s="11"/>
-      <c r="M166" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M166" s="11"/>
+      <c r="N166" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="11" t="s">
         <v>448</v>
       </c>
@@ -7638,88 +8308,100 @@
       <c r="C167" s="19" t="s">
         <v>447</v>
       </c>
-      <c r="D167" s="4" t="s">
+      <c r="D167" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E167" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E167" s="4" t="s">
+      <c r="F167" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F167" s="5" t="s">
+      <c r="G167" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="G167" s="5" t="s">
+      <c r="H167" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="H167" s="5" t="s">
+      <c r="I167" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="I167" s="11"/>
       <c r="J167" s="11"/>
       <c r="K167" s="11"/>
       <c r="L167" s="11"/>
-      <c r="M167" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M167" s="11"/>
+      <c r="N167" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="s">
         <v>448</v>
       </c>
       <c r="B168" s="19"/>
       <c r="C168" s="19"/>
-      <c r="D168" s="4" t="s">
+      <c r="D168" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E168" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E168" s="4" t="s">
+      <c r="F168" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F168" s="5" t="s">
+      <c r="G168" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="G168" s="5" t="s">
+      <c r="H168" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="H168" s="5" t="s">
+      <c r="I168" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I168" s="11"/>
       <c r="J168" s="11"/>
       <c r="K168" s="11"/>
       <c r="L168" s="11"/>
-      <c r="M168" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M168" s="11"/>
+      <c r="N168" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="11" t="s">
         <v>448</v>
       </c>
       <c r="B169" s="19"/>
       <c r="C169" s="19"/>
-      <c r="D169" s="4" t="s">
+      <c r="D169" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E169" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E169" s="4" t="s">
+      <c r="F169" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F169" s="5" t="s">
+      <c r="G169" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G169" s="5" t="s">
+      <c r="H169" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="H169" s="5" t="s">
+      <c r="I169" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="I169" s="11"/>
       <c r="J169" s="11"/>
       <c r="K169" s="11"/>
       <c r="L169" s="11"/>
-      <c r="M169" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M169" s="11"/>
+      <c r="N169" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="20" t="s">
         <v>448</v>
       </c>
@@ -7727,30 +8409,34 @@
       <c r="C170" s="24" t="s">
         <v>454</v>
       </c>
-      <c r="D170" s="4" t="s">
+      <c r="D170" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E170" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E170" s="4" t="s">
+      <c r="F170" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F170" s="16" t="s">
+      <c r="G170" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="G170" s="24" t="s">
+      <c r="H170" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="H170" s="5" t="s">
+      <c r="I170" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="I170" s="11"/>
       <c r="J170" s="11"/>
       <c r="K170" s="11"/>
       <c r="L170" s="11"/>
-      <c r="M170" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M170" s="11"/>
+      <c r="N170" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="20" t="s">
         <v>448</v>
       </c>
@@ -7758,30 +8444,34 @@
       <c r="C171" s="24" t="s">
         <v>454</v>
       </c>
-      <c r="D171" s="4" t="s">
+      <c r="D171" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E171" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E171" s="4" t="s">
+      <c r="F171" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F171" s="5" t="s">
+      <c r="G171" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="G171" s="5" t="s">
+      <c r="H171" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="H171" s="5" t="s">
+      <c r="I171" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="I171" s="11"/>
       <c r="J171" s="11"/>
       <c r="K171" s="11"/>
       <c r="L171" s="11"/>
-      <c r="M171" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M171" s="11"/>
+      <c r="N171" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="20" t="s">
         <v>448</v>
       </c>
@@ -7789,30 +8479,34 @@
       <c r="C172" s="24" t="s">
         <v>454</v>
       </c>
-      <c r="D172" s="4" t="s">
+      <c r="D172" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E172" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E172" s="4" t="s">
+      <c r="F172" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F172" s="5" t="s">
+      <c r="G172" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="G172" s="5" t="s">
+      <c r="H172" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H172" s="5" t="s">
+      <c r="I172" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="I172" s="11"/>
       <c r="J172" s="11"/>
       <c r="K172" s="11"/>
       <c r="L172" s="11"/>
-      <c r="M172" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M172" s="11"/>
+      <c r="N172" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="20" t="s">
         <v>448</v>
       </c>
@@ -7820,30 +8514,34 @@
       <c r="C173" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="D173" s="4" t="s">
+      <c r="D173" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E173" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E173" s="4" t="s">
+      <c r="F173" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F173" s="5" t="s">
+      <c r="G173" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="G173" s="5" t="s">
+      <c r="H173" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="H173" s="5" t="s">
+      <c r="I173" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="I173" s="11"/>
       <c r="J173" s="11"/>
       <c r="K173" s="11"/>
       <c r="L173" s="11"/>
-      <c r="M173" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M173" s="11"/>
+      <c r="N173" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="20" t="s">
         <v>448</v>
       </c>
@@ -7851,30 +8549,34 @@
       <c r="C174" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="D174" s="4" t="s">
+      <c r="D174" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E174" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E174" s="4" t="s">
+      <c r="F174" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F174" s="5" t="s">
+      <c r="G174" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="G174" s="5" t="s">
+      <c r="H174" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="H174" s="5" t="s">
+      <c r="I174" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="I174" s="11"/>
       <c r="J174" s="11"/>
       <c r="K174" s="11"/>
       <c r="L174" s="11"/>
-      <c r="M174" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M174" s="11"/>
+      <c r="N174" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="20" t="s">
         <v>448</v>
       </c>
@@ -7882,59 +8584,67 @@
       <c r="C175" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="D175" s="4" t="s">
+      <c r="D175" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E175" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E175" s="4" t="s">
+      <c r="F175" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F175" s="5" t="s">
+      <c r="G175" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="G175" s="5" t="s">
+      <c r="H175" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="H175" s="5" t="s">
+      <c r="I175" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="I175" s="11"/>
       <c r="J175" s="11"/>
       <c r="K175" s="11"/>
       <c r="L175" s="11"/>
-      <c r="M175" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M175" s="11"/>
+      <c r="N175" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="20" t="s">
         <v>448</v>
       </c>
       <c r="B176" s="19"/>
       <c r="C176" s="19"/>
-      <c r="D176" s="4" t="s">
+      <c r="D176" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E176" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E176" s="4" t="s">
+      <c r="F176" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F176" s="5" t="s">
+      <c r="G176" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G176" s="5" t="s">
+      <c r="H176" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="H176" s="5" t="s">
+      <c r="I176" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="I176" s="11"/>
       <c r="J176" s="11"/>
       <c r="K176" s="11"/>
       <c r="L176" s="11"/>
-      <c r="M176" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M176" s="11"/>
+      <c r="N176" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="20" t="s">
         <v>448</v>
       </c>
@@ -7942,30 +8652,34 @@
       <c r="C177" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="D177" s="4" t="s">
+      <c r="D177" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E177" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E177" s="4" t="s">
+      <c r="F177" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F177" s="5" t="s">
+      <c r="G177" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G177" s="5" t="s">
+      <c r="H177" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H177" s="5" t="s">
+      <c r="I177" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="I177" s="11"/>
       <c r="J177" s="11"/>
       <c r="K177" s="11"/>
       <c r="L177" s="11"/>
-      <c r="M177" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M177" s="11"/>
+      <c r="N177" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="20" t="s">
         <v>448</v>
       </c>
@@ -7973,30 +8687,34 @@
       <c r="C178" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="D178" s="4" t="s">
+      <c r="D178" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E178" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E178" s="4" t="s">
+      <c r="F178" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F178" s="5" t="s">
+      <c r="G178" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G178" s="5" t="s">
+      <c r="H178" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="H178" s="5" t="s">
+      <c r="I178" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="I178" s="11"/>
       <c r="J178" s="11"/>
       <c r="K178" s="11"/>
       <c r="L178" s="11"/>
-      <c r="M178" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M178" s="11"/>
+      <c r="N178" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="20" t="s">
         <v>448</v>
       </c>
@@ -8004,30 +8722,34 @@
       <c r="C179" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="D179" s="4" t="s">
+      <c r="D179" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E179" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E179" s="4" t="s">
+      <c r="F179" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F179" s="5" t="s">
+      <c r="G179" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G179" s="5" t="s">
+      <c r="H179" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="H179" s="5" t="s">
+      <c r="I179" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="I179" s="11"/>
       <c r="J179" s="11"/>
       <c r="K179" s="11"/>
       <c r="L179" s="11"/>
-      <c r="M179" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M179" s="11"/>
+      <c r="N179" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="20" t="s">
         <v>448</v>
       </c>
@@ -8035,30 +8757,34 @@
       <c r="C180" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="D180" s="4" t="s">
+      <c r="D180" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E180" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E180" s="4" t="s">
+      <c r="F180" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F180" s="5" t="s">
+      <c r="G180" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G180" s="5" t="s">
+      <c r="H180" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="H180" s="5" t="s">
+      <c r="I180" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="I180" s="11"/>
       <c r="J180" s="11"/>
       <c r="K180" s="11"/>
       <c r="L180" s="11"/>
-      <c r="M180" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M180" s="11"/>
+      <c r="N180" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="20" t="s">
         <v>448</v>
       </c>
@@ -8066,239 +8792,271 @@
       <c r="C181" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="D181" s="4" t="s">
+      <c r="D181" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E181" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E181" s="4" t="s">
+      <c r="F181" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F181" s="5" t="s">
+      <c r="G181" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G181" s="5" t="s">
+      <c r="H181" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="H181" s="5" t="s">
+      <c r="I181" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="I181" s="11"/>
       <c r="J181" s="11"/>
       <c r="K181" s="11"/>
       <c r="L181" s="11"/>
-      <c r="M181" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M181" s="11"/>
+      <c r="N181" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="20" t="s">
         <v>448</v>
       </c>
       <c r="B182" s="19"/>
       <c r="C182" s="19"/>
-      <c r="D182" s="4" t="s">
+      <c r="D182" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E182" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E182" s="4" t="s">
+      <c r="F182" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F182" s="5" t="s">
+      <c r="G182" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G182" s="5" t="s">
+      <c r="H182" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="H182" s="5" t="s">
+      <c r="I182" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="I182" s="11"/>
       <c r="J182" s="11"/>
       <c r="K182" s="11"/>
       <c r="L182" s="11"/>
-      <c r="M182" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M182" s="11"/>
+      <c r="N182" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="11" t="s">
         <v>448</v>
       </c>
       <c r="B183" s="19"/>
       <c r="C183" s="19"/>
-      <c r="D183" s="4" t="s">
+      <c r="D183" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E183" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E183" s="4" t="s">
+      <c r="F183" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F183" s="5" t="s">
+      <c r="G183" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G183" s="5" t="s">
+      <c r="H183" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="H183" s="5" t="s">
+      <c r="I183" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="I183" s="11"/>
       <c r="J183" s="11"/>
       <c r="K183" s="11"/>
       <c r="L183" s="11"/>
-      <c r="M183" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M183" s="11"/>
+      <c r="N183" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A184" s="20" t="s">
         <v>445</v>
       </c>
       <c r="B184" s="19"/>
       <c r="C184" s="19"/>
-      <c r="D184" s="4" t="s">
+      <c r="D184" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>remove</v>
+      </c>
+      <c r="E184" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E184" s="4" t="s">
+      <c r="F184" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F184" s="5" t="s">
+      <c r="G184" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G184" s="5" t="s">
+      <c r="H184" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="H184" s="5" t="s">
+      <c r="I184" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="I184" s="4" t="s">
+      <c r="J184" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="J184" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="K184" s="11"/>
-      <c r="L184" s="7" t="s">
+      <c r="K184" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="L184" s="11"/>
+      <c r="M184" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="M184" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="N184" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="11" t="s">
         <v>448</v>
       </c>
       <c r="B185" s="19"/>
       <c r="C185" s="19"/>
-      <c r="D185" s="4" t="s">
+      <c r="D185" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E185" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E185" s="4" t="s">
+      <c r="F185" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F185" s="5" t="s">
+      <c r="G185" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G185" s="5" t="s">
+      <c r="H185" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="H185" s="5" t="s">
+      <c r="I185" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="I185" s="11"/>
       <c r="J185" s="11"/>
       <c r="K185" s="11"/>
       <c r="L185" s="11"/>
-      <c r="M185" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M185" s="11"/>
+      <c r="N185" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="11" t="s">
         <v>448</v>
       </c>
       <c r="B186" s="19"/>
       <c r="C186" s="19"/>
-      <c r="D186" s="4" t="s">
+      <c r="D186" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E186" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E186" s="4" t="s">
+      <c r="F186" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F186" s="5" t="s">
+      <c r="G186" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G186" s="5" t="s">
+      <c r="H186" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="H186" s="5" t="s">
+      <c r="I186" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="I186" s="11"/>
       <c r="J186" s="11"/>
       <c r="K186" s="11"/>
       <c r="L186" s="11"/>
-      <c r="M186" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M186" s="11"/>
+      <c r="N186" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="11" t="s">
         <v>448</v>
       </c>
       <c r="B187" s="19"/>
       <c r="C187" s="19"/>
-      <c r="D187" s="4" t="s">
+      <c r="D187" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E187" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E187" s="4" t="s">
+      <c r="F187" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F187" s="5" t="s">
+      <c r="G187" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="G187" s="5" t="s">
+      <c r="H187" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="H187" s="5" t="s">
+      <c r="I187" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="I187" s="11"/>
       <c r="J187" s="11"/>
       <c r="K187" s="11"/>
       <c r="L187" s="11"/>
-      <c r="M187" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M187" s="11"/>
+      <c r="N187" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="11" t="s">
         <v>448</v>
       </c>
       <c r="B188" s="19"/>
       <c r="C188" s="19"/>
-      <c r="D188" s="4" t="s">
+      <c r="D188" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E188" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E188" s="4" t="s">
+      <c r="F188" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F188" s="5" t="s">
+      <c r="G188" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G188" s="5" t="s">
+      <c r="H188" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="H188" s="5" t="s">
+      <c r="I188" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="I188" s="11"/>
       <c r="J188" s="11"/>
       <c r="K188" s="11"/>
       <c r="L188" s="11"/>
-      <c r="M188" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M188" s="11"/>
+      <c r="N188" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
         <v>448</v>
       </c>
@@ -8306,30 +9064,34 @@
       <c r="C189" s="19" t="s">
         <v>447</v>
       </c>
-      <c r="D189" s="4" t="s">
+      <c r="D189" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>keep</v>
+      </c>
+      <c r="E189" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E189" s="4" t="s">
+      <c r="F189" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F189" s="5" t="s">
+      <c r="G189" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G189" s="5" t="s">
+      <c r="H189" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="H189" s="5" t="s">
+      <c r="I189" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="I189" s="11"/>
       <c r="J189" s="11"/>
       <c r="K189" s="11"/>
       <c r="L189" s="11"/>
-      <c r="M189" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M189" s="11"/>
+      <c r="N189" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="11" t="s">
         <v>467</v>
       </c>
@@ -8337,22 +9099,26 @@
       <c r="C190" s="19" t="s">
         <v>447</v>
       </c>
-      <c r="D190" s="11" t="s">
+      <c r="D190" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>not in eCR</v>
+      </c>
+      <c r="E190" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="E190" s="11"/>
-      <c r="F190" s="7"/>
+      <c r="F190" s="11"/>
       <c r="G190" s="7"/>
       <c r="H190" s="7"/>
-      <c r="I190" s="11"/>
+      <c r="I190" s="7"/>
       <c r="J190" s="11"/>
       <c r="K190" s="11"/>
       <c r="L190" s="11"/>
-      <c r="M190" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M190" s="11"/>
+      <c r="N190" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="11" t="s">
         <v>467</v>
       </c>
@@ -8360,22 +9126,26 @@
       <c r="C191" s="19" t="s">
         <v>447</v>
       </c>
-      <c r="D191" s="11" t="s">
+      <c r="D191" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>not in eCR</v>
+      </c>
+      <c r="E191" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="E191" s="11"/>
-      <c r="F191" s="7"/>
+      <c r="F191" s="11"/>
       <c r="G191" s="7"/>
       <c r="H191" s="7"/>
-      <c r="I191" s="11"/>
+      <c r="I191" s="7"/>
       <c r="J191" s="11"/>
       <c r="K191" s="11"/>
       <c r="L191" s="11"/>
-      <c r="M191" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M191" s="11"/>
+      <c r="N191" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="s">
         <v>467</v>
       </c>
@@ -8383,22 +9153,26 @@
       <c r="C192" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="D192" s="11" t="s">
+      <c r="D192" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>not in eCR</v>
+      </c>
+      <c r="E192" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="E192" s="11"/>
-      <c r="F192" s="7"/>
+      <c r="F192" s="11"/>
       <c r="G192" s="7"/>
       <c r="H192" s="7"/>
-      <c r="I192" s="11"/>
+      <c r="I192" s="7"/>
       <c r="J192" s="11"/>
       <c r="K192" s="11"/>
       <c r="L192" s="11"/>
-      <c r="M192" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M192" s="11"/>
+      <c r="N192" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="s">
         <v>467</v>
       </c>
@@ -8406,22 +9180,26 @@
       <c r="C193" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="D193" s="11" t="s">
+      <c r="D193" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>not in eCR</v>
+      </c>
+      <c r="E193" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="E193" s="11"/>
-      <c r="F193" s="7"/>
+      <c r="F193" s="11"/>
       <c r="G193" s="7"/>
       <c r="H193" s="7"/>
-      <c r="I193" s="11"/>
+      <c r="I193" s="7"/>
       <c r="J193" s="11"/>
       <c r="K193" s="11"/>
       <c r="L193" s="11"/>
-      <c r="M193" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="M193" s="11"/>
+      <c r="N193" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>468</v>
       </c>
@@ -8429,22 +9207,26 @@
       <c r="C194" s="19" t="s">
         <v>447</v>
       </c>
-      <c r="D194" s="11" t="s">
+      <c r="D194" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>could be in social history, but not specifically identified in eCR</v>
+      </c>
+      <c r="E194" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="E194" s="11"/>
-      <c r="F194" s="7"/>
+      <c r="F194" s="11"/>
       <c r="G194" s="7"/>
       <c r="H194" s="7"/>
-      <c r="I194" s="11"/>
+      <c r="I194" s="7"/>
       <c r="J194" s="11"/>
       <c r="K194" s="11"/>
-      <c r="L194" s="7"/>
-      <c r="M194" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L194" s="11"/>
+      <c r="M194" s="7"/>
+      <c r="N194" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="11" t="s">
         <v>467</v>
       </c>
@@ -8452,22 +9234,26 @@
       <c r="C195" s="19" t="s">
         <v>447</v>
       </c>
-      <c r="D195" s="11" t="s">
+      <c r="D195" s="23" t="str">
+        <f t="shared" ref="D195:D201" si="3">A195</f>
+        <v>not in eCR</v>
+      </c>
+      <c r="E195" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="E195" s="11"/>
-      <c r="F195" s="7"/>
+      <c r="F195" s="11"/>
       <c r="G195" s="7"/>
       <c r="H195" s="7"/>
-      <c r="I195" s="11"/>
+      <c r="I195" s="7"/>
       <c r="J195" s="11"/>
       <c r="K195" s="11"/>
       <c r="L195" s="11"/>
-      <c r="M195" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M195" s="11"/>
+      <c r="N195" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="11" t="s">
         <v>467</v>
       </c>
@@ -8475,173 +9261,197 @@
       <c r="C196" s="19" t="s">
         <v>447</v>
       </c>
-      <c r="D196" s="11" t="s">
+      <c r="D196" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>not in eCR</v>
+      </c>
+      <c r="E196" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="E196" s="11"/>
-      <c r="F196" s="7"/>
+      <c r="F196" s="11"/>
       <c r="G196" s="7"/>
       <c r="H196" s="7"/>
-      <c r="I196" s="11"/>
+      <c r="I196" s="7"/>
       <c r="J196" s="11"/>
       <c r="K196" s="11"/>
       <c r="L196" s="11"/>
-      <c r="M196" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M196" s="11"/>
+      <c r="N196" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" s="22" t="s">
         <v>445</v>
       </c>
       <c r="B197" s="19"/>
       <c r="C197" s="19"/>
-      <c r="D197" s="11"/>
-      <c r="E197" s="11" t="s">
+      <c r="D197" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>remove</v>
+      </c>
+      <c r="E197" s="11"/>
+      <c r="F197" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="F197" s="7"/>
       <c r="G197" s="7"/>
       <c r="H197" s="7"/>
-      <c r="I197" s="22" t="s">
+      <c r="I197" s="7"/>
+      <c r="J197" s="22" t="s">
         <v>492</v>
       </c>
-      <c r="J197" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="K197" s="11"/>
-      <c r="L197" s="7" t="s">
+      <c r="K197" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="L197" s="11"/>
+      <c r="M197" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="M197" s="11" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N197" s="11" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" s="22" t="s">
         <v>445</v>
       </c>
       <c r="B198" s="19"/>
       <c r="C198" s="19"/>
-      <c r="D198" s="11"/>
-      <c r="E198" s="11" t="s">
+      <c r="D198" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>remove</v>
+      </c>
+      <c r="E198" s="11"/>
+      <c r="F198" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="F198" s="7"/>
       <c r="G198" s="7"/>
       <c r="H198" s="7"/>
-      <c r="I198" s="22" t="s">
+      <c r="I198" s="7"/>
+      <c r="J198" s="22" t="s">
         <v>493</v>
       </c>
-      <c r="J198" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="K198" s="11"/>
-      <c r="L198" s="7" t="s">
+      <c r="K198" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="L198" s="11"/>
+      <c r="M198" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="M198" s="11" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N198" s="11" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" s="22" t="s">
         <v>445</v>
       </c>
       <c r="B199" s="20"/>
       <c r="C199" s="19"/>
-      <c r="D199" s="11"/>
-      <c r="E199" s="11" t="s">
+      <c r="D199" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>remove</v>
+      </c>
+      <c r="E199" s="11"/>
+      <c r="F199" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="F199" s="7"/>
       <c r="G199" s="7"/>
       <c r="H199" s="7"/>
-      <c r="I199" s="22" t="s">
+      <c r="I199" s="7"/>
+      <c r="J199" s="22" t="s">
         <v>495</v>
       </c>
-      <c r="J199" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="K199" s="11"/>
-      <c r="L199" s="7" t="s">
+      <c r="K199" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="L199" s="11"/>
+      <c r="M199" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="M199" s="11" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N199" s="11" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" s="22" t="s">
         <v>445</v>
       </c>
       <c r="B200" s="20"/>
       <c r="C200" s="19"/>
-      <c r="D200" s="11"/>
-      <c r="E200" s="11" t="s">
+      <c r="D200" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>remove</v>
+      </c>
+      <c r="E200" s="11"/>
+      <c r="F200" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="F200" s="7"/>
       <c r="G200" s="7"/>
       <c r="H200" s="7"/>
-      <c r="I200" s="22" t="s">
+      <c r="I200" s="7"/>
+      <c r="J200" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="J200" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="K200" s="11"/>
-      <c r="L200" s="7" t="s">
+      <c r="K200" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="L200" s="11"/>
+      <c r="M200" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="M200" s="11" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="N200" s="11" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="22" t="s">
         <v>445</v>
       </c>
       <c r="B201" s="20"/>
       <c r="C201" s="19"/>
-      <c r="D201" s="11" t="s">
+      <c r="D201" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>remove</v>
+      </c>
+      <c r="E201" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="E201" s="11"/>
-      <c r="F201" s="7"/>
+      <c r="F201" s="11"/>
       <c r="G201" s="7"/>
       <c r="H201" s="7"/>
-      <c r="I201" s="22" t="s">
+      <c r="I201" s="7"/>
+      <c r="J201" s="22" t="s">
         <v>584</v>
       </c>
-      <c r="J201" s="11"/>
       <c r="K201" s="11"/>
-      <c r="L201" s="7" t="s">
+      <c r="L201" s="11"/>
+      <c r="M201" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="M201" s="11" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N201" s="11" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B202" s="13"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B203" s="13"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B204" s="13"/>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B205" s="13"/>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B206" s="13"/>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B207" s="13"/>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B208" s="13"/>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.2">
@@ -8700,7 +9510,19 @@
       <c r="B228" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I201" xr:uid="{C5F0C505-63DE-4322-BEE9-180C5089B356}"/>
+  <autoFilter ref="A1:N201" xr:uid="{C5F0C505-63DE-4322-BEE9-180C5089B356}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="EICRAnonymizedComposition"/>
+        <filter val="EICRAnonymizedImmunization"/>
+        <filter val="EICRAnonymizedPastOrPresentJob"/>
+        <filter val="EICRAnonymizedPatient"/>
+        <filter val="EICRAnonymizedPractitioner"/>
+        <filter val="EICRAnonymizedPractitioner_x000a_EICRAnonymizedPractitionerRole"/>
+        <filter val="EICRAnonymizedRelatedPerson"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
@@ -9474,6 +10296,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LCG_x0020_Document_x0020_Workflow xmlns="82D0F40D-97DD-4AB3-B4BB-3ECBE327B628">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </LCG_x0020_Document_x0020_Workflow>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="82d0f40d-97dd-4ab3-b4bb-3ecbe327b628">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9ed5a28f-e285-4793-933e-f86572ea3e88" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AAEF04E9A1B48544A813770D804417BF" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a681fcb199cf8f7d334bb0be32bb6121">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="9ed5a28f-e285-4793-933e-f86572ea3e88" xmlns:ns3="82D0F40D-97DD-4AB3-B4BB-3ECBE327B628" xmlns:ns4="a130c0bc-081d-4a7d-8c4b-0d956631a56e" xmlns:ns5="82d0f40d-97dd-4ab3-b4bb-3ecbe327b628" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="910aa554c65bba8b8ae3e351c6d836ba" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9756,23 +10595,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LCG_x0020_Document_x0020_Workflow xmlns="82D0F40D-97DD-4AB3-B4BB-3ECBE327B628">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </LCG_x0020_Document_x0020_Workflow>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="82d0f40d-97dd-4ab3-b4bb-3ecbe327b628">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9ed5a28f-e285-4793-933e-f86572ea3e88" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9783,6 +10605,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF9989B-4098-42D7-BF53-B78163861EAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="82d0f40d-97dd-4ab3-b4bb-3ecbe327b628"/>
+    <ds:schemaRef ds:uri="a130c0bc-081d-4a7d-8c4b-0d956631a56e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="82D0F40D-97DD-4AB3-B4BB-3ECBE327B628"/>
+    <ds:schemaRef ds:uri="9ed5a28f-e285-4793-933e-f86572ea3e88"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0EC9102-CC0B-48A4-9231-EA87BE55FEC3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9804,26 +10646,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF9989B-4098-42D7-BF53-B78163861EAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="82d0f40d-97dd-4ab3-b4bb-3ecbe327b628"/>
-    <ds:schemaRef ds:uri="a130c0bc-081d-4a7d-8c4b-0d956631a56e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="82D0F40D-97DD-4AB3-B4BB-3ECBE327B628"/>
-    <ds:schemaRef ds:uri="9ed5a28f-e285-4793-933e-f86572ea3e88"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{444632C0-B354-4144-8906-CF8857243D1F}">
   <ds:schemaRefs>

--- a/requirements/Anonymized eicrdataneedsv14_working.xlsx
+++ b/requirements/Anonymized eicrdataneedsv14_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minigrrl\Dropbox\12_SourceControl\GitHub\Lantana\FHIR-us-eicr-anonymized\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EC89A4-FC91-4875-8A68-40DCE6117F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF8256E-1046-49CE-B4BA-BF6FD083F2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{285485E5-942A-4B88-BF4B-14F3EF0BB33E}"/>
   </bookViews>
@@ -2442,20 +2442,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F0C505-63DE-4322-BEE9-180C5089B356}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="K161" sqref="K161"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="12" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="12" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="12" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="13" customWidth="1"/>
     <col min="5" max="5" width="44.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" style="3" customWidth="1"/>
@@ -2512,7 +2511,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>448</v>
       </c>
@@ -2549,7 +2548,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>448</v>
       </c>
@@ -2582,7 +2581,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>448</v>
       </c>
@@ -2615,7 +2614,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>448</v>
       </c>
@@ -3063,7 +3062,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>448</v>
       </c>
@@ -3098,7 +3097,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>448</v>
       </c>
@@ -3133,7 +3132,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>448</v>
       </c>
@@ -3166,7 +3165,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>448</v>
       </c>
@@ -3203,7 +3202,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>448</v>
       </c>
@@ -3240,7 +3239,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>448</v>
       </c>
@@ -3277,7 +3276,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>448</v>
       </c>
@@ -3314,7 +3313,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>448</v>
       </c>
@@ -3349,7 +3348,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>448</v>
       </c>
@@ -3382,7 +3381,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>448</v>
       </c>
@@ -3417,7 +3416,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>448</v>
       </c>
@@ -3450,7 +3449,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>448</v>
       </c>
@@ -3483,7 +3482,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>448</v>
       </c>
@@ -3516,7 +3515,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>448</v>
       </c>
@@ -3715,7 +3714,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>448</v>
       </c>
@@ -3752,7 +3751,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
         <v>445</v>
       </c>
@@ -3790,7 +3789,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>448</v>
       </c>
@@ -3825,7 +3824,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="1" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>448</v>
       </c>
@@ -3864,7 +3863,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>448</v>
       </c>
@@ -3899,7 +3898,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="1" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="27" t="s">
         <v>445</v>
       </c>
@@ -3937,7 +3936,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="1" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="27" t="s">
         <v>445</v>
       </c>
@@ -3975,7 +3974,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>448</v>
       </c>
@@ -4014,7 +4013,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>448</v>
       </c>
@@ -4049,7 +4048,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>448</v>
       </c>
@@ -4084,7 +4083,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>448</v>
       </c>
@@ -4119,7 +4118,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>448</v>
       </c>
@@ -4156,7 +4155,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>448</v>
       </c>
@@ -4193,7 +4192,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>448</v>
       </c>
@@ -4230,7 +4229,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>448</v>
       </c>
@@ -4267,7 +4266,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A49" s="27" t="s">
         <v>445</v>
       </c>
@@ -4303,7 +4302,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>448</v>
       </c>
@@ -4336,7 +4335,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>448</v>
       </c>
@@ -4369,7 +4368,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>448</v>
       </c>
@@ -4402,7 +4401,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>448</v>
       </c>
@@ -4435,7 +4434,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>448</v>
       </c>
@@ -4470,7 +4469,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="55" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>448</v>
       </c>
@@ -4505,7 +4504,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>448</v>
       </c>
@@ -4540,7 +4539,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>448</v>
       </c>
@@ -4573,7 +4572,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="58" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>448</v>
       </c>
@@ -4608,7 +4607,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>448</v>
       </c>
@@ -4641,7 +4640,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>448</v>
       </c>
@@ -4676,7 +4675,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>448</v>
       </c>
@@ -4709,7 +4708,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>448</v>
       </c>
@@ -4744,7 +4743,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>448</v>
       </c>
@@ -4777,7 +4776,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>448</v>
       </c>
@@ -4812,7 +4811,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>448</v>
       </c>
@@ -4847,7 +4846,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>448</v>
       </c>
@@ -4884,7 +4883,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>448</v>
       </c>
@@ -4960,7 +4959,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="69" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>448</v>
       </c>
@@ -4995,7 +4994,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="70" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>448</v>
       </c>
@@ -5030,7 +5029,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>448</v>
       </c>
@@ -5065,7 +5064,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>448</v>
       </c>
@@ -5100,7 +5099,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="73" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>448</v>
       </c>
@@ -5137,7 +5136,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>448</v>
       </c>
@@ -5172,7 +5171,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="75" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>448</v>
       </c>
@@ -5207,7 +5206,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="76" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>448</v>
       </c>
@@ -5244,7 +5243,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>448</v>
       </c>
@@ -5281,7 +5280,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="78" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>448</v>
       </c>
@@ -5316,7 +5315,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="79" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>448</v>
       </c>
@@ -5351,7 +5350,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="80" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>448</v>
       </c>
@@ -5386,7 +5385,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="81" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>448</v>
       </c>
@@ -5419,7 +5418,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="82" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>448</v>
       </c>
@@ -5454,7 +5453,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>448</v>
       </c>
@@ -5489,7 +5488,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="84" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>448</v>
       </c>
@@ -5522,7 +5521,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="85" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>448</v>
       </c>
@@ -5555,7 +5554,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="86" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>448</v>
       </c>
@@ -5588,7 +5587,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="87" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>448</v>
       </c>
@@ -5621,7 +5620,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="88" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>448</v>
       </c>
@@ -5656,7 +5655,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="89" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>448</v>
       </c>
@@ -5689,7 +5688,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="90" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>448</v>
       </c>
@@ -5724,7 +5723,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="91" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>448</v>
       </c>
@@ -5759,7 +5758,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="92" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>448</v>
       </c>
@@ -5794,7 +5793,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="93" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>448</v>
       </c>
@@ -5829,7 +5828,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="94" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>448</v>
       </c>
@@ -5864,7 +5863,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="95" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>448</v>
       </c>
@@ -5901,7 +5900,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="96" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>448</v>
       </c>
@@ -5936,7 +5935,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="97" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>448</v>
       </c>
@@ -5971,7 +5970,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="98" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>448</v>
       </c>
@@ -6006,7 +6005,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="99" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>448</v>
       </c>
@@ -6041,7 +6040,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="100" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>448</v>
       </c>
@@ -6076,7 +6075,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="101" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>448</v>
       </c>
@@ -6111,7 +6110,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="102" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>448</v>
       </c>
@@ -6146,7 +6145,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="103" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A103" s="23" t="s">
         <v>448</v>
       </c>
@@ -6181,7 +6180,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="104" spans="1:14" s="1" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A104" s="23" t="s">
         <v>448</v>
       </c>
@@ -6216,7 +6215,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="105" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>448</v>
       </c>
@@ -6251,7 +6250,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="106" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>448</v>
       </c>
@@ -6286,7 +6285,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="107" spans="1:14" s="1" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>448</v>
       </c>
@@ -6323,7 +6322,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="108" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>448</v>
       </c>
@@ -6360,7 +6359,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="109" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>448</v>
       </c>
@@ -6395,7 +6394,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>448</v>
       </c>
@@ -6428,7 +6427,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>448</v>
       </c>
@@ -6461,7 +6460,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>448</v>
       </c>
@@ -6494,7 +6493,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>448</v>
       </c>
@@ -6527,7 +6526,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>448</v>
       </c>
@@ -6560,7 +6559,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>448</v>
       </c>
@@ -6593,7 +6592,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>448</v>
       </c>
@@ -6626,7 +6625,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>448</v>
       </c>
@@ -6659,7 +6658,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>448</v>
       </c>
@@ -6692,7 +6691,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>448</v>
       </c>
@@ -6725,7 +6724,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>448</v>
       </c>
@@ -6758,7 +6757,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>448</v>
       </c>
@@ -6791,7 +6790,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>448</v>
       </c>
@@ -6824,7 +6823,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>448</v>
       </c>
@@ -6857,7 +6856,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>448</v>
       </c>
@@ -6890,7 +6889,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>448</v>
       </c>
@@ -6923,7 +6922,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>448</v>
       </c>
@@ -6956,7 +6955,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>448</v>
       </c>
@@ -6989,7 +6988,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>448</v>
       </c>
@@ -7022,7 +7021,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>448</v>
       </c>
@@ -7055,7 +7054,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>448</v>
       </c>
@@ -7088,7 +7087,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>448</v>
       </c>
@@ -7119,7 +7118,7 @@
       <c r="M131" s="11"/>
       <c r="N131" s="11"/>
     </row>
-    <row r="132" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>448</v>
       </c>
@@ -7152,7 +7151,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>448</v>
       </c>
@@ -7185,7 +7184,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="134" spans="1:14" s="1" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>448</v>
       </c>
@@ -7218,7 +7217,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="135" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>448</v>
       </c>
@@ -7251,7 +7250,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="136" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>448</v>
       </c>
@@ -7284,7 +7283,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="137" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>448</v>
       </c>
@@ -7317,7 +7316,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="138" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>448</v>
       </c>
@@ -7350,7 +7349,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="139" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>448</v>
       </c>
@@ -7422,7 +7421,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="141" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A141" s="23" t="s">
         <v>448</v>
       </c>
@@ -7455,7 +7454,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="142" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A142" s="23" t="s">
         <v>448</v>
       </c>
@@ -7488,7 +7487,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="143" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>448</v>
       </c>
@@ -7521,7 +7520,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="144" spans="1:14" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>448</v>
       </c>
@@ -7554,7 +7553,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="145" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>448</v>
       </c>
@@ -7587,7 +7586,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="146" spans="1:14" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>448</v>
       </c>
@@ -7620,7 +7619,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>448</v>
       </c>
@@ -7653,7 +7652,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>448</v>
       </c>
@@ -7686,7 +7685,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="72" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" ht="72" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>448</v>
       </c>
@@ -7719,7 +7718,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="84" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" ht="84" x14ac:dyDescent="0.2">
       <c r="A150" s="23" t="s">
         <v>448</v>
       </c>
@@ -7752,7 +7751,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A151" s="23" t="s">
         <v>448</v>
       </c>
@@ -7785,7 +7784,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A152" s="23" t="s">
         <v>448</v>
       </c>
@@ -7818,7 +7817,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A153" s="23" t="s">
         <v>448</v>
       </c>
@@ -7851,7 +7850,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="84" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" ht="84" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>448</v>
       </c>
@@ -8001,7 +8000,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="s">
         <v>448</v>
       </c>
@@ -8034,7 +8033,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="159" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A159" s="11" t="s">
         <v>448</v>
       </c>
@@ -8067,7 +8066,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A160" s="11" t="s">
         <v>448</v>
       </c>
@@ -8137,7 +8136,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="s">
         <v>448</v>
       </c>
@@ -8168,7 +8167,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A163" s="11" t="s">
         <v>448</v>
       </c>
@@ -8201,7 +8200,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A164" s="11" t="s">
         <v>448</v>
       </c>
@@ -8234,7 +8233,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="165" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A165" s="11" t="s">
         <v>448</v>
       </c>
@@ -8267,7 +8266,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="166" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A166" s="11" t="s">
         <v>448</v>
       </c>
@@ -8300,7 +8299,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A167" s="11" t="s">
         <v>448</v>
       </c>
@@ -8335,7 +8334,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="s">
         <v>448</v>
       </c>
@@ -8368,7 +8367,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="169" spans="1:14" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A169" s="11" t="s">
         <v>448</v>
       </c>
@@ -8401,7 +8400,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A170" s="20" t="s">
         <v>448</v>
       </c>
@@ -8436,7 +8435,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A171" s="20" t="s">
         <v>448</v>
       </c>
@@ -8471,7 +8470,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A172" s="20" t="s">
         <v>448</v>
       </c>
@@ -8506,7 +8505,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="173" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A173" s="20" t="s">
         <v>448</v>
       </c>
@@ -8541,7 +8540,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A174" s="20" t="s">
         <v>448</v>
       </c>
@@ -8576,7 +8575,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A175" s="20" t="s">
         <v>448</v>
       </c>
@@ -8611,7 +8610,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="176" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A176" s="20" t="s">
         <v>448</v>
       </c>
@@ -8644,7 +8643,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="177" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A177" s="20" t="s">
         <v>448</v>
       </c>
@@ -8679,7 +8678,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="178" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A178" s="20" t="s">
         <v>448</v>
       </c>
@@ -8714,7 +8713,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="179" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A179" s="20" t="s">
         <v>448</v>
       </c>
@@ -8749,7 +8748,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="180" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A180" s="20" t="s">
         <v>448</v>
       </c>
@@ -8784,7 +8783,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="181" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A181" s="20" t="s">
         <v>448</v>
       </c>
@@ -8819,7 +8818,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="182" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A182" s="20" t="s">
         <v>448</v>
       </c>
@@ -8852,7 +8851,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="183" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A183" s="11" t="s">
         <v>448</v>
       </c>
@@ -8924,7 +8923,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="185" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A185" s="11" t="s">
         <v>448</v>
       </c>
@@ -8957,7 +8956,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="186" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A186" s="11" t="s">
         <v>448</v>
       </c>
@@ -8990,7 +8989,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="187" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A187" s="11" t="s">
         <v>448</v>
       </c>
@@ -9023,7 +9022,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="188" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A188" s="11" t="s">
         <v>448</v>
       </c>
@@ -9056,7 +9055,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="189" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
         <v>448</v>
       </c>
@@ -9091,7 +9090,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" s="11" t="s">
         <v>467</v>
       </c>
@@ -9118,7 +9117,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" s="11" t="s">
         <v>467</v>
       </c>
@@ -9145,7 +9144,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="192" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="s">
         <v>467</v>
       </c>
@@ -9172,7 +9171,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="193" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="s">
         <v>467</v>
       </c>
@@ -9199,7 +9198,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="194" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>468</v>
       </c>
@@ -9226,7 +9225,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" s="11" t="s">
         <v>467</v>
       </c>
@@ -9253,7 +9252,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" s="11" t="s">
         <v>467</v>
       </c>
@@ -9404,7 +9403,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="201" spans="1:14" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A201" s="22" t="s">
         <v>445</v>
       </c>
@@ -9510,19 +9509,7 @@
       <c r="B228" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N201" xr:uid="{C5F0C505-63DE-4322-BEE9-180C5089B356}">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="EICRAnonymizedComposition"/>
-        <filter val="EICRAnonymizedImmunization"/>
-        <filter val="EICRAnonymizedPastOrPresentJob"/>
-        <filter val="EICRAnonymizedPatient"/>
-        <filter val="EICRAnonymizedPractitioner"/>
-        <filter val="EICRAnonymizedPractitioner_x000a_EICRAnonymizedPractitionerRole"/>
-        <filter val="EICRAnonymizedRelatedPerson"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:N201" xr:uid="{C5F0C505-63DE-4322-BEE9-180C5089B356}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
@@ -10296,20 +10283,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LCG_x0020_Document_x0020_Workflow xmlns="82D0F40D-97DD-4AB3-B4BB-3ECBE327B628">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </LCG_x0020_Document_x0020_Workflow>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="82d0f40d-97dd-4ab3-b4bb-3ecbe327b628">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9ed5a28f-e285-4793-933e-f86572ea3e88" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10596,30 +10575,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LCG_x0020_Document_x0020_Workflow xmlns="82D0F40D-97DD-4AB3-B4BB-3ECBE327B628">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </LCG_x0020_Document_x0020_Workflow>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="82d0f40d-97dd-4ab3-b4bb-3ecbe327b628">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9ed5a28f-e285-4793-933e-f86572ea3e88" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF9989B-4098-42D7-BF53-B78163861EAE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{444632C0-B354-4144-8906-CF8857243D1F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="82d0f40d-97dd-4ab3-b4bb-3ecbe327b628"/>
-    <ds:schemaRef ds:uri="a130c0bc-081d-4a7d-8c4b-0d956631a56e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="82D0F40D-97DD-4AB3-B4BB-3ECBE327B628"/>
-    <ds:schemaRef ds:uri="9ed5a28f-e285-4793-933e-f86572ea3e88"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10647,9 +10622,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{444632C0-B354-4144-8906-CF8857243D1F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF9989B-4098-42D7-BF53-B78163861EAE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="82d0f40d-97dd-4ab3-b4bb-3ecbe327b628"/>
+    <ds:schemaRef ds:uri="a130c0bc-081d-4a7d-8c4b-0d956631a56e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="82D0F40D-97DD-4AB3-B4BB-3ECBE327B628"/>
+    <ds:schemaRef ds:uri="9ed5a28f-e285-4793-933e-f86572ea3e88"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>